--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -229,7 +229,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -260,11 +260,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167454768"/>
-        <c:axId val="167452048"/>
+        <c:axId val="586701760"/>
+        <c:axId val="586701216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167454768"/>
+        <c:axId val="586701760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -306,7 +306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167452048"/>
+        <c:crossAx val="586701216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -314,7 +314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167452048"/>
+        <c:axId val="586701216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167454768"/>
+        <c:crossAx val="586701760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1271,7 +1271,7 @@
   <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -1340,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1366,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1419,11 +1419,11 @@
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:I7" si="0">SUM(D3:D6)</f>
-        <v>12</v>
+        <f>SUM(D3:D6)</f>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7:I7" si="0">SUM(E3:E6)</f>
         <v>13</v>
       </c>
       <c r="F7" s="1">

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -64,12 +64,21 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>HARI 1</t>
+  </si>
+  <si>
+    <t>HARI 2</t>
+  </si>
+  <si>
+    <t>HARI 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +94,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -121,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,6 +167,13 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -229,7 +266,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -260,11 +297,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="586701760"/>
-        <c:axId val="586701216"/>
+        <c:axId val="2017964896"/>
+        <c:axId val="2017961632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="586701760"/>
+        <c:axId val="2017964896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -306,7 +343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586701216"/>
+        <c:crossAx val="2017961632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -314,7 +351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="586701216"/>
+        <c:axId val="2017961632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +402,525 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586701760"/>
+        <c:crossAx val="2017964896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="5661376"/>
+        <c:axId val="5664096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5661376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5664096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5664096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5661376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="5662464"/>
+        <c:axId val="5674432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5662464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5674432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5674432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5662464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -454,7 +1009,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -997,6 +2664,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1268,10 +2999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I7"/>
+  <dimension ref="B1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,8 +3010,23 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +3052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -1332,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1340,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1358,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1384,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1410,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1420,10 +3166,10 @@
       </c>
       <c r="D7" s="1">
         <f>SUM(D3:D6)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="D7:I7" si="0">SUM(E3:E6)</f>
+        <f t="shared" ref="E7:I7" si="0">SUM(E3:E6)</f>
         <v>13</v>
       </c>
       <c r="F7" s="1">
@@ -1443,7 +3189,370 @@
         <v>12</v>
       </c>
     </row>
+    <row r="25" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <f>SUM(C27:C30)</f>
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <f>SUM(D27:D30)</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31:I31" si="1">SUM(E27:E30)</f>
+        <v>13</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1">
+        <f>SUM(C50:C53)</f>
+        <v>8</v>
+      </c>
+      <c r="D54" s="1">
+        <f>SUM(D50:D53)</f>
+        <v>4</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" ref="E54:I54" si="2">SUM(E50:E53)</f>
+        <v>5</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B48:M48"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackyson\Desktop\Projek TKKPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TI-B_SORE_WESTLIFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>HARI 3</t>
+  </si>
+  <si>
+    <t>HARI 4</t>
   </si>
 </sst>
 </file>
@@ -169,10 +172,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -297,11 +300,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2017964896"/>
-        <c:axId val="2017961632"/>
+        <c:axId val="273864520"/>
+        <c:axId val="273864912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2017964896"/>
+        <c:axId val="273864520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,7 +346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2017961632"/>
+        <c:crossAx val="273864912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -351,7 +354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2017961632"/>
+        <c:axId val="273864912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2017964896"/>
+        <c:crossAx val="273864520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -517,7 +520,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$I$7</c:f>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -525,7 +528,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -556,11 +559,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="5661376"/>
-        <c:axId val="5664096"/>
+        <c:axId val="273865696"/>
+        <c:axId val="273866088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5661376"/>
+        <c:axId val="273865696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5664096"/>
+        <c:crossAx val="273866088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -610,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5664096"/>
+        <c:axId val="273866088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5661376"/>
+        <c:crossAx val="273865696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -726,16 +729,102 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$I$2</c:f>
+              <c:f>Sheet1!$C$73:$I$73</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$78:$I$78</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$73:$I$73</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -776,7 +865,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$I$7</c:f>
+              <c:f>Sheet1!$C$78:$I$78</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -784,13 +873,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14</c:v>
@@ -815,16 +904,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="5662464"/>
-        <c:axId val="5674432"/>
+        <c:axId val="274526928"/>
+        <c:axId val="274533592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5662464"/>
+        <c:axId val="274526928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -861,15 +951,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5674432"/>
+        <c:crossAx val="274533592"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5674432"/>
+        <c:axId val="274533592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +1010,277 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5662464"/>
+        <c:crossAx val="274526928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$49:$I$49</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="276318808"/>
+        <c:axId val="276319200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="276318808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276319200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276319200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276318808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,6 +1449,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2122,6 +2522,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2704,19 +3620,49 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2727,7 +3673,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2999,10 +3945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M54"/>
+  <dimension ref="B1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,20 +3957,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -3190,20 +4136,20 @@
       </c>
     </row>
     <row r="25" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -3369,20 +4315,20 @@
       </c>
     </row>
     <row r="48" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
@@ -3547,11 +4493,191 @@
         <v>12</v>
       </c>
     </row>
+    <row r="72" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+    </row>
+    <row r="73" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1">
+        <v>4</v>
+      </c>
+      <c r="I74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
+      <c r="I75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>5</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3</v>
+      </c>
+      <c r="I76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1">
+        <f>SUM(C74:C77)</f>
+        <v>8</v>
+      </c>
+      <c r="D78" s="1">
+        <f>SUM(D74:D77)</f>
+        <v>4</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" ref="E78:I78" si="3">SUM(E74:E77)</f>
+        <v>5</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B72:M72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>HARI 4</t>
+  </si>
+  <si>
+    <t>HARI 5</t>
   </si>
 </sst>
 </file>
@@ -300,11 +303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="273864520"/>
-        <c:axId val="273864912"/>
+        <c:axId val="284609240"/>
+        <c:axId val="284611200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273864520"/>
+        <c:axId val="284609240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273864912"/>
+        <c:crossAx val="284611200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -354,7 +357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273864912"/>
+        <c:axId val="284611200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273864520"/>
+        <c:crossAx val="284609240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -559,11 +562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="273865696"/>
-        <c:axId val="273866088"/>
+        <c:axId val="284612376"/>
+        <c:axId val="284612768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273865696"/>
+        <c:axId val="284612376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273866088"/>
+        <c:crossAx val="284612768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273866088"/>
+        <c:axId val="284612768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273865696"/>
+        <c:crossAx val="284612376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -904,11 +907,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="274526928"/>
-        <c:axId val="274533592"/>
+        <c:axId val="287138928"/>
+        <c:axId val="287139320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="274526928"/>
+        <c:axId val="287138928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274533592"/>
+        <c:crossAx val="287139320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -959,7 +962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274533592"/>
+        <c:axId val="287139320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274526928"/>
+        <c:crossAx val="287138928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1174,11 +1177,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="276318808"/>
-        <c:axId val="276319200"/>
+        <c:axId val="287140104"/>
+        <c:axId val="287140496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276318808"/>
+        <c:axId val="287140104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276319200"/>
+        <c:crossAx val="287140496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276319200"/>
+        <c:axId val="287140496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1283,269 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276318808"/>
+        <c:crossAx val="287140104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$102:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="288678080"/>
+        <c:axId val="288678472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="288678080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288678472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288678472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288678080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1489,6 +1754,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3038,6 +3343,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3679,6 +4500,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3945,10 +4796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M78"/>
+  <dimension ref="B1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4672,12 +5523,192 @@
         <v>12</v>
       </c>
     </row>
+    <row r="96" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+    </row>
+    <row r="97" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>4</v>
+      </c>
+      <c r="I98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>3</v>
+      </c>
+      <c r="I99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>3</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="1">
+        <f>SUM(C98:C101)</f>
+        <v>8</v>
+      </c>
+      <c r="D102" s="1">
+        <f>SUM(D98:D101)</f>
+        <v>4</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" ref="E102:I102" si="4">SUM(E98:E101)</f>
+        <v>5</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B48:M48"/>
     <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B96:M96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>HARI 5</t>
+  </si>
+  <si>
+    <t>HARI 6</t>
   </si>
 </sst>
 </file>
@@ -303,11 +306,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="284609240"/>
-        <c:axId val="284611200"/>
+        <c:axId val="279878144"/>
+        <c:axId val="279877752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284609240"/>
+        <c:axId val="279878144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,7 +352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284611200"/>
+        <c:crossAx val="279877752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -357,7 +360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284611200"/>
+        <c:axId val="279877752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284609240"/>
+        <c:crossAx val="279878144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -562,11 +565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="284612376"/>
-        <c:axId val="284612768"/>
+        <c:axId val="279876968"/>
+        <c:axId val="279876576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284612376"/>
+        <c:axId val="279876968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,7 +611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284612768"/>
+        <c:crossAx val="279876576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -616,7 +619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284612768"/>
+        <c:axId val="279876576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,7 +670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284612376"/>
+        <c:crossAx val="279876968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -907,11 +910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="287138928"/>
-        <c:axId val="287139320"/>
+        <c:axId val="279875792"/>
+        <c:axId val="279875400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="287138928"/>
+        <c:axId val="279875792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287139320"/>
+        <c:crossAx val="279875400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -962,7 +965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287139320"/>
+        <c:axId val="279875400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287138928"/>
+        <c:crossAx val="279875792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,11 +1180,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="287140104"/>
-        <c:axId val="287140496"/>
+        <c:axId val="279874616"/>
+        <c:axId val="279881672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="287140104"/>
+        <c:axId val="279874616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287140496"/>
+        <c:crossAx val="279881672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1232,7 +1235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287140496"/>
+        <c:axId val="279881672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287140104"/>
+        <c:crossAx val="279874616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,11 +1442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="288678080"/>
-        <c:axId val="288678472"/>
+        <c:axId val="245791520"/>
+        <c:axId val="245791128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288678080"/>
+        <c:axId val="245791520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288678472"/>
+        <c:crossAx val="245791128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1494,7 +1497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288678472"/>
+        <c:axId val="245791128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1548,269 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288678080"/>
+        <c:crossAx val="245791520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$125:$I$125</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="285267128"/>
+        <c:axId val="285267520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="285267128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285267520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="285267520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285267128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,6 +2059,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3859,6 +4164,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4530,6 +5351,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4796,10 +5647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M102"/>
+  <dimension ref="B1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5702,8 +6553,188 @@
         <v>12</v>
       </c>
     </row>
+    <row r="119" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+    </row>
+    <row r="120" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>2</v>
+      </c>
+      <c r="H122" s="1">
+        <v>2</v>
+      </c>
+      <c r="I122" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1">
+        <v>2</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1</v>
+      </c>
+      <c r="I123" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="1">
+        <f>SUM(C121:C124)</f>
+        <v>8</v>
+      </c>
+      <c r="D125" s="1">
+        <f>SUM(D121:D124)</f>
+        <v>4</v>
+      </c>
+      <c r="E125" s="1">
+        <f t="shared" ref="E125:I125" si="5">SUM(E121:E124)</f>
+        <v>5</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G125" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I125" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B119:M119"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B48:M48"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TI-B_SORE_WESTLIFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projek TKKPL\Projek TKKPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>HARI 6</t>
+  </si>
+  <si>
+    <t>HARI 7</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,6 +187,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,11 +310,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="279878144"/>
-        <c:axId val="279877752"/>
+        <c:axId val="-1232479152"/>
+        <c:axId val="-1232480784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279878144"/>
+        <c:axId val="-1232479152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,10 +353,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279877752"/>
+        <c:crossAx val="-1232480784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -360,7 +364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279877752"/>
+        <c:axId val="-1232480784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,10 +412,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279878144"/>
+        <c:crossAx val="-1232479152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -449,7 +453,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -565,11 +569,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="279876968"/>
-        <c:axId val="279876576"/>
+        <c:axId val="-1232472624"/>
+        <c:axId val="-1232471536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279876968"/>
+        <c:axId val="-1232472624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -608,10 +612,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279876576"/>
+        <c:crossAx val="-1232471536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -619,7 +623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279876576"/>
+        <c:axId val="-1232471536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,10 +671,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279876968"/>
+        <c:crossAx val="-1232472624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -708,7 +712,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -910,11 +914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="279875792"/>
-        <c:axId val="279875400"/>
+        <c:axId val="-1232470992"/>
+        <c:axId val="-1232479696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279875792"/>
+        <c:axId val="-1232470992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,10 +958,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279875400"/>
+        <c:crossAx val="-1232479696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -965,7 +969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279875400"/>
+        <c:axId val="-1232479696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,10 +1017,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279875792"/>
+        <c:crossAx val="-1232470992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1054,7 +1058,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1180,11 +1184,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="279874616"/>
-        <c:axId val="279881672"/>
+        <c:axId val="-1232481328"/>
+        <c:axId val="-1232482416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279874616"/>
+        <c:axId val="-1232481328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,10 +1228,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279881672"/>
+        <c:crossAx val="-1232482416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1235,7 +1239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279881672"/>
+        <c:axId val="-1232482416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,10 +1287,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279874616"/>
+        <c:crossAx val="-1232481328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1324,7 +1328,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1376,7 +1380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1442,11 +1446,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245791520"/>
-        <c:axId val="245791128"/>
+        <c:axId val="-1232478064"/>
+        <c:axId val="-1232477520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245791520"/>
+        <c:axId val="-1232478064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,10 +1490,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245791128"/>
+        <c:crossAx val="-1232477520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1497,7 +1501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245791128"/>
+        <c:axId val="-1232477520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,10 +1549,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245791520"/>
+        <c:crossAx val="-1232478064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1586,7 +1590,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1638,7 +1642,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1704,11 +1708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="285267128"/>
-        <c:axId val="285267520"/>
+        <c:axId val="-1052926656"/>
+        <c:axId val="-1052925024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285267128"/>
+        <c:axId val="-1052926656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,10 +1752,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285267520"/>
+        <c:crossAx val="-1052925024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1759,7 +1763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285267520"/>
+        <c:axId val="-1052925024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,10 +1811,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285267128"/>
+        <c:crossAx val="-1052926656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1848,7 +1852,276 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.1596675415573385E-3"/>
+          <c:y val="0.90277777777777779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$149:$I$149</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1052932096"/>
+        <c:axId val="-1052931552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1052932096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1052931552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1052931552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1052932096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2099,6 +2372,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4680,6 +4993,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5381,6 +6210,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5647,10 +6506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M125"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149:I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6732,8 +7591,189 @@
         <v>12</v>
       </c>
     </row>
+    <row r="143" spans="1:13" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="6"/>
+      <c r="B143" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+    </row>
+    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>2</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
+        <v>1</v>
+      </c>
+      <c r="I145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1">
+        <v>2</v>
+      </c>
+      <c r="H146" s="1">
+        <v>2</v>
+      </c>
+      <c r="I146" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>2</v>
+      </c>
+      <c r="G147" s="1">
+        <v>2</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1</v>
+      </c>
+      <c r="I147" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1">
+        <v>1</v>
+      </c>
+      <c r="H148" s="1">
+        <v>1</v>
+      </c>
+      <c r="I148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="1">
+        <f>SUM(C145:C148)</f>
+        <v>8</v>
+      </c>
+      <c r="D149" s="1">
+        <f>SUM(D145:D148)</f>
+        <v>4</v>
+      </c>
+      <c r="E149" s="1">
+        <f t="shared" ref="E149:I149" si="6">SUM(E145:E148)</f>
+        <v>5</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G149" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H149" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="I149" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B143:M143"/>
     <mergeCell ref="B119:M119"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B25:M25"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -85,6 +85,24 @@
   <si>
     <t>HARI 7</t>
   </si>
+  <si>
+    <t>HARI 8</t>
+  </si>
+  <si>
+    <t>Minggu 2</t>
+  </si>
+  <si>
+    <t>Sbubar - Mark</t>
+  </si>
+  <si>
+    <t>Sbubar - Shane</t>
+  </si>
+  <si>
+    <t>Sbubar - Nicky</t>
+  </si>
+  <si>
+    <t>Sbubar - Kian</t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,11 +177,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,13 +208,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,11 +340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1232479152"/>
-        <c:axId val="-1232480784"/>
+        <c:axId val="-1516948160"/>
+        <c:axId val="-1516950880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1232479152"/>
+        <c:axId val="-1516948160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +386,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232480784"/>
+        <c:crossAx val="-1516950880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -364,7 +394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1232480784"/>
+        <c:axId val="-1516950880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +445,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232479152"/>
+        <c:crossAx val="-1516948160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -569,11 +599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1232472624"/>
-        <c:axId val="-1232471536"/>
+        <c:axId val="-1516953600"/>
+        <c:axId val="-1516956864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1232472624"/>
+        <c:axId val="-1516953600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +645,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232471536"/>
+        <c:crossAx val="-1516956864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -623,7 +653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1232471536"/>
+        <c:axId val="-1516956864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +704,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232472624"/>
+        <c:crossAx val="-1516953600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -914,11 +944,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1232470992"/>
-        <c:axId val="-1232479696"/>
+        <c:axId val="-1516955232"/>
+        <c:axId val="-1516951968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1232470992"/>
+        <c:axId val="-1516955232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,7 +991,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232479696"/>
+        <c:crossAx val="-1516951968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -969,7 +999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1232479696"/>
+        <c:axId val="-1516951968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1050,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232470992"/>
+        <c:crossAx val="-1516955232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1184,11 +1214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1232481328"/>
-        <c:axId val="-1232482416"/>
+        <c:axId val="-1516949792"/>
+        <c:axId val="-1516948704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1232481328"/>
+        <c:axId val="-1516949792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1261,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232482416"/>
+        <c:crossAx val="-1516948704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1239,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1232482416"/>
+        <c:axId val="-1516948704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1320,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232481328"/>
+        <c:crossAx val="-1516949792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,7 +1384,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1446,11 +1475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1232478064"/>
-        <c:axId val="-1232477520"/>
+        <c:axId val="-1517090864"/>
+        <c:axId val="-1517091952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1232478064"/>
+        <c:axId val="-1517090864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1522,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232477520"/>
+        <c:crossAx val="-1517091952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1501,7 +1530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1232477520"/>
+        <c:axId val="-1517091952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1581,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1232478064"/>
+        <c:crossAx val="-1517090864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1708,11 +1737,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1052926656"/>
-        <c:axId val="-1052925024"/>
+        <c:axId val="-1371443936"/>
+        <c:axId val="-1371450464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1052926656"/>
+        <c:axId val="-1371443936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1784,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052925024"/>
+        <c:crossAx val="-1371450464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1763,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1052925024"/>
+        <c:axId val="-1371450464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1843,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052926656"/>
+        <c:crossAx val="-1371443936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,15 +1906,566 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$149:$I$149</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1371442304"/>
+        <c:axId val="-1371439040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1371442304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1371439040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1371439040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1371442304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.1596675415573385E-3"/>
-          <c:y val="0.90277777777777779"/>
+          <c:x val="4.0025371828521436E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.9155301837270341"/>
+          <c:h val="0.72088764946048411"/>
         </c:manualLayout>
       </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$173:$I$173</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1298351072"/>
+        <c:axId val="-1298347808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1298351072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1298347808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1298347808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1298351072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Minggu 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1938,12 +2518,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$149:$I$149</c:f>
+              <c:f>Sheet1!$L$173:$R$173</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -1977,11 +2557,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1052932096"/>
-        <c:axId val="-1052931552"/>
+        <c:axId val="-1298355424"/>
+        <c:axId val="-1298352704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1052932096"/>
+        <c:axId val="-1298355424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2604,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052931552"/>
+        <c:crossAx val="-1298352704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1052931552"/>
+        <c:axId val="-1298352704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2663,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1052932096"/>
+        <c:crossAx val="-1298355424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2412,6 +2992,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5509,6 +6169,1038 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6240,6 +7932,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6506,32 +8258,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:R173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149:I149"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -6697,20 +8450,20 @@
       </c>
     </row>
     <row r="25" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6876,20 +8629,20 @@
       </c>
     </row>
     <row r="48" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
@@ -7055,20 +8808,20 @@
       </c>
     </row>
     <row r="72" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
     </row>
     <row r="73" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
@@ -7234,20 +8987,20 @@
       </c>
     </row>
     <row r="96" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
     </row>
     <row r="97" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
@@ -7413,20 +9166,20 @@
       </c>
     </row>
     <row r="119" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
     </row>
     <row r="120" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
@@ -7591,22 +9344,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
-      <c r="M143" s="8"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
@@ -7771,8 +9524,349 @@
         <v>6</v>
       </c>
     </row>
+    <row r="167" spans="1:18" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="6"/>
+      <c r="B167" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+      <c r="M167" s="9"/>
+    </row>
+    <row r="168" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J168" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R168" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1">
+        <v>2</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="G169" s="1">
+        <v>1</v>
+      </c>
+      <c r="H169" s="1">
+        <v>1</v>
+      </c>
+      <c r="I169" s="1">
+        <v>1</v>
+      </c>
+      <c r="J169" s="10"/>
+      <c r="K169" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L169" s="1">
+        <v>1</v>
+      </c>
+      <c r="M169" s="1">
+        <v>1</v>
+      </c>
+      <c r="N169" s="1">
+        <v>2</v>
+      </c>
+      <c r="O169" s="1">
+        <v>1</v>
+      </c>
+      <c r="P169" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>1</v>
+      </c>
+      <c r="R169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="1">
+        <v>2</v>
+      </c>
+      <c r="H170" s="1">
+        <v>2</v>
+      </c>
+      <c r="I170" s="1">
+        <v>2</v>
+      </c>
+      <c r="J170" s="10"/>
+      <c r="K170" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L170" s="1">
+        <v>1</v>
+      </c>
+      <c r="M170" s="1">
+        <v>1</v>
+      </c>
+      <c r="N170" s="1">
+        <v>1</v>
+      </c>
+      <c r="O170" s="1">
+        <v>1</v>
+      </c>
+      <c r="P170" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>2</v>
+      </c>
+      <c r="R170" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1">
+        <v>2</v>
+      </c>
+      <c r="G171" s="1">
+        <v>2</v>
+      </c>
+      <c r="H171" s="1">
+        <v>1</v>
+      </c>
+      <c r="I171" s="1">
+        <v>2</v>
+      </c>
+      <c r="J171" s="10"/>
+      <c r="K171" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L171" s="1">
+        <v>1</v>
+      </c>
+      <c r="M171" s="1">
+        <v>1</v>
+      </c>
+      <c r="N171" s="1">
+        <v>1</v>
+      </c>
+      <c r="O171" s="1">
+        <v>2</v>
+      </c>
+      <c r="P171" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q171" s="1">
+        <v>1</v>
+      </c>
+      <c r="R171" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" s="1">
+        <v>1</v>
+      </c>
+      <c r="H172" s="1">
+        <v>1</v>
+      </c>
+      <c r="I172" s="1">
+        <v>1</v>
+      </c>
+      <c r="J172" s="10"/>
+      <c r="K172" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L172" s="1">
+        <v>1</v>
+      </c>
+      <c r="M172" s="1">
+        <v>1</v>
+      </c>
+      <c r="N172" s="1">
+        <v>1</v>
+      </c>
+      <c r="O172" s="1">
+        <v>1</v>
+      </c>
+      <c r="P172" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="1">
+        <v>1</v>
+      </c>
+      <c r="R172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="1">
+        <f>SUM(C169:C172)</f>
+        <v>8</v>
+      </c>
+      <c r="D173" s="1">
+        <f>SUM(D169:D172)</f>
+        <v>4</v>
+      </c>
+      <c r="E173" s="1">
+        <f t="shared" ref="E173:I173" si="7">SUM(E169:E172)</f>
+        <v>5</v>
+      </c>
+      <c r="F173" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G173" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H173" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I173" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J173" s="10"/>
+      <c r="K173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L173" s="1">
+        <f>SUM(L169:L172)</f>
+        <v>4</v>
+      </c>
+      <c r="M173" s="1">
+        <f>SUM(M169:M172)</f>
+        <v>4</v>
+      </c>
+      <c r="N173" s="1">
+        <f t="shared" ref="N173:R173" si="8">SUM(N169:N172)</f>
+        <v>5</v>
+      </c>
+      <c r="O173" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P173" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q173" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="R173" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B167:M167"/>
+    <mergeCell ref="J168:J173"/>
     <mergeCell ref="B143:M143"/>
     <mergeCell ref="B119:M119"/>
     <mergeCell ref="B1:M1"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="27">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Sbubar - Kian</t>
+  </si>
+  <si>
+    <t>HARI 9</t>
   </si>
 </sst>
 </file>
@@ -340,11 +343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1516948160"/>
-        <c:axId val="-1516950880"/>
+        <c:axId val="-918582704"/>
+        <c:axId val="-918574544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1516948160"/>
+        <c:axId val="-918582704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +389,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516950880"/>
+        <c:crossAx val="-918574544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -394,7 +397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1516950880"/>
+        <c:axId val="-918574544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,7 +448,601 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516948160"/>
+        <c:crossAx val="-918582704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0025371828521436E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.9155301837270341"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$173:$I$173</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-768893520"/>
+        <c:axId val="-768892976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-768893520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-768892976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-768892976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-768893520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>M</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>inggu 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$197:$R$197</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-702773888"/>
+        <c:axId val="-702768992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-702773888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-702768992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-702768992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-702773888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -599,11 +1196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1516953600"/>
-        <c:axId val="-1516956864"/>
+        <c:axId val="-918579440"/>
+        <c:axId val="-918571280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1516953600"/>
+        <c:axId val="-918579440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +1242,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516956864"/>
+        <c:crossAx val="-918571280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -653,7 +1250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1516956864"/>
+        <c:axId val="-918571280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +1301,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516953600"/>
+        <c:crossAx val="-918579440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,11 +1541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1516955232"/>
-        <c:axId val="-1516951968"/>
+        <c:axId val="-918576720"/>
+        <c:axId val="-918576176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1516955232"/>
+        <c:axId val="-918576720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1588,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516951968"/>
+        <c:crossAx val="-918576176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +1596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1516951968"/>
+        <c:axId val="-918576176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1647,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516955232"/>
+        <c:crossAx val="-918576720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1214,11 +1811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1516949792"/>
-        <c:axId val="-1516948704"/>
+        <c:axId val="-918701200"/>
+        <c:axId val="-918700656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1516949792"/>
+        <c:axId val="-918701200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1858,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516948704"/>
+        <c:crossAx val="-918700656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1516948704"/>
+        <c:axId val="-918700656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1917,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1516949792"/>
+        <c:crossAx val="-918701200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1475,11 +2072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1517090864"/>
-        <c:axId val="-1517091952"/>
+        <c:axId val="-773652208"/>
+        <c:axId val="-773656016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1517090864"/>
+        <c:axId val="-773652208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +2119,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1517091952"/>
+        <c:crossAx val="-773656016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +2127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1517091952"/>
+        <c:axId val="-773656016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,7 +2178,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1517090864"/>
+        <c:crossAx val="-773652208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1645,7 +2242,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1737,11 +2333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1371443936"/>
-        <c:axId val="-1371450464"/>
+        <c:axId val="-773655472"/>
+        <c:axId val="-773659280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1371443936"/>
+        <c:axId val="-773655472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +2380,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371450464"/>
+        <c:crossAx val="-773659280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +2388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371450464"/>
+        <c:axId val="-773659280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +2439,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371443936"/>
+        <c:crossAx val="-773655472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1968,11 +2564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1371442304"/>
-        <c:axId val="-1371439040"/>
+        <c:axId val="-773654928"/>
+        <c:axId val="-773653840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1371442304"/>
+        <c:axId val="-773654928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2611,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371439040"/>
+        <c:crossAx val="-773653840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371439040"/>
+        <c:axId val="-773653840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +2670,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371442304"/>
+        <c:crossAx val="-773654928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2270,11 +2866,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1298351072"/>
-        <c:axId val="-1298347808"/>
+        <c:axId val="-773660368"/>
+        <c:axId val="-773651664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1298351072"/>
+        <c:axId val="-773660368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +2913,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1298347808"/>
+        <c:crossAx val="-773651664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2325,7 +2921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1298347808"/>
+        <c:axId val="-773651664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2972,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1298351072"/>
+        <c:crossAx val="-773660368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2557,11 +3153,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1298355424"/>
-        <c:axId val="-1298352704"/>
+        <c:axId val="-773646768"/>
+        <c:axId val="-773659824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1298355424"/>
+        <c:axId val="-773646768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +3200,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1298352704"/>
+        <c:crossAx val="-773659824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2612,7 +3208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1298352704"/>
+        <c:axId val="-773659824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +3259,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1298355424"/>
+        <c:crossAx val="-773646768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2713,6 +3309,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3588,6 +4264,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7992,6 +9700,68 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8258,10 +10028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R173"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="J178" sqref="J178"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="R201" sqref="R201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9863,8 +11633,349 @@
         <v>6</v>
       </c>
     </row>
+    <row r="191" spans="1:18" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="6"/>
+      <c r="B191" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
+      <c r="L191" s="9"/>
+      <c r="M191" s="9"/>
+    </row>
+    <row r="192" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J192" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P192" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R192" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>2</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1</v>
+      </c>
+      <c r="G193" s="1">
+        <v>1</v>
+      </c>
+      <c r="H193" s="1">
+        <v>1</v>
+      </c>
+      <c r="I193" s="1">
+        <v>1</v>
+      </c>
+      <c r="J193" s="10"/>
+      <c r="K193" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L193" s="1">
+        <v>1</v>
+      </c>
+      <c r="M193" s="1">
+        <v>1</v>
+      </c>
+      <c r="N193" s="1">
+        <v>2</v>
+      </c>
+      <c r="O193" s="1">
+        <v>1</v>
+      </c>
+      <c r="P193" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q193" s="1">
+        <v>1</v>
+      </c>
+      <c r="R193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F194" s="1">
+        <v>1</v>
+      </c>
+      <c r="G194" s="1">
+        <v>2</v>
+      </c>
+      <c r="H194" s="1">
+        <v>2</v>
+      </c>
+      <c r="I194" s="1">
+        <v>2</v>
+      </c>
+      <c r="J194" s="10"/>
+      <c r="K194" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L194" s="1">
+        <v>1</v>
+      </c>
+      <c r="M194" s="1">
+        <v>2</v>
+      </c>
+      <c r="N194" s="1">
+        <v>1</v>
+      </c>
+      <c r="O194" s="1">
+        <v>1</v>
+      </c>
+      <c r="P194" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q194" s="1">
+        <v>2</v>
+      </c>
+      <c r="R194" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+      <c r="F195" s="1">
+        <v>2</v>
+      </c>
+      <c r="G195" s="1">
+        <v>2</v>
+      </c>
+      <c r="H195" s="1">
+        <v>1</v>
+      </c>
+      <c r="I195" s="1">
+        <v>2</v>
+      </c>
+      <c r="J195" s="10"/>
+      <c r="K195" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L195" s="1">
+        <v>1</v>
+      </c>
+      <c r="M195" s="1">
+        <v>1</v>
+      </c>
+      <c r="N195" s="1">
+        <v>1</v>
+      </c>
+      <c r="O195" s="1">
+        <v>2</v>
+      </c>
+      <c r="P195" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q195" s="1">
+        <v>1</v>
+      </c>
+      <c r="R195" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="1">
+        <v>2</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1</v>
+      </c>
+      <c r="G196" s="1">
+        <v>1</v>
+      </c>
+      <c r="H196" s="1">
+        <v>1</v>
+      </c>
+      <c r="I196" s="1">
+        <v>1</v>
+      </c>
+      <c r="J196" s="10"/>
+      <c r="K196" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L196" s="1">
+        <v>1</v>
+      </c>
+      <c r="M196" s="1">
+        <v>1</v>
+      </c>
+      <c r="N196" s="1">
+        <v>1</v>
+      </c>
+      <c r="O196" s="1">
+        <v>1</v>
+      </c>
+      <c r="P196" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q196" s="1">
+        <v>1</v>
+      </c>
+      <c r="R196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="1">
+        <f>SUM(C193:C196)</f>
+        <v>8</v>
+      </c>
+      <c r="D197" s="1">
+        <f>SUM(D193:D196)</f>
+        <v>4</v>
+      </c>
+      <c r="E197" s="1">
+        <f t="shared" ref="E197:I197" si="9">SUM(E193:E196)</f>
+        <v>5</v>
+      </c>
+      <c r="F197" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="G197" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="H197" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="I197" s="1">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J197" s="10"/>
+      <c r="K197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L197" s="1">
+        <f>SUM(L193:L196)</f>
+        <v>4</v>
+      </c>
+      <c r="M197" s="1">
+        <f>SUM(M193:M196)</f>
+        <v>5</v>
+      </c>
+      <c r="N197" s="1">
+        <f t="shared" ref="N197:R197" si="10">SUM(N193:N196)</f>
+        <v>5</v>
+      </c>
+      <c r="O197" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P197" s="1">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Q197" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="R197" s="1">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="J192:J197"/>
     <mergeCell ref="B167:M167"/>
     <mergeCell ref="J168:J173"/>
     <mergeCell ref="B143:M143"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projek TKKPL\Projek TKKPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasan\Desktop\Project TKPL\Projek TKKPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="29">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>HARI 9</t>
+  </si>
+  <si>
+    <t>HARI 10</t>
+  </si>
+  <si>
+    <t>Minggu 1</t>
   </si>
 </sst>
 </file>
@@ -343,11 +349,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-918582704"/>
-        <c:axId val="-918574544"/>
+        <c:axId val="-1511256608"/>
+        <c:axId val="-1511268576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-918582704"/>
+        <c:axId val="-1511256608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,10 +392,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-918574544"/>
+        <c:crossAx val="-1511268576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -397,7 +403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-918574544"/>
+        <c:axId val="-1511268576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,10 +451,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-918582704"/>
+        <c:crossAx val="-1511256608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -486,7 +492,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -568,7 +574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -644,11 +650,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-768893520"/>
-        <c:axId val="-768892976"/>
+        <c:axId val="-1508112592"/>
+        <c:axId val="-1508106608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-768893520"/>
+        <c:axId val="-1508112592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,10 +694,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-768892976"/>
+        <c:crossAx val="-1508106608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-768892976"/>
+        <c:axId val="-1508106608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,10 +753,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-768893520"/>
+        <c:crossAx val="-1508112592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -788,7 +794,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -870,7 +876,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -936,11 +942,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-702773888"/>
-        <c:axId val="-702768992"/>
+        <c:axId val="-1508110960"/>
+        <c:axId val="-1508114224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-702773888"/>
+        <c:axId val="-1508110960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,10 +986,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702768992"/>
+        <c:crossAx val="-1508114224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -991,7 +997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-702768992"/>
+        <c:axId val="-1508114224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,10 +1045,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702773888"/>
+        <c:crossAx val="-1508110960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1080,7 +1086,601 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0025371828521436E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.9155301837270341"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$173:$I$173</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1506410944"/>
+        <c:axId val="-1506414752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1506410944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1506414752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1506414752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1506410944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$220:$R$220</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1506421824"/>
+        <c:axId val="-1506413664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1506421824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1506413664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1506413664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1506421824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1196,11 +1796,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-918579440"/>
-        <c:axId val="-918571280"/>
+        <c:axId val="-1511266400"/>
+        <c:axId val="-1511262592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-918579440"/>
+        <c:axId val="-1511266400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,10 +1839,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-918571280"/>
+        <c:crossAx val="-1511262592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1250,7 +1850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-918571280"/>
+        <c:axId val="-1511262592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,10 +1898,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-918579440"/>
+        <c:crossAx val="-1511266400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1339,7 +1939,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1541,11 +2141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-918576720"/>
-        <c:axId val="-918576176"/>
+        <c:axId val="-1511263136"/>
+        <c:axId val="-1511261504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-918576720"/>
+        <c:axId val="-1511263136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,10 +2185,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-918576176"/>
+        <c:crossAx val="-1511261504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1596,7 +2196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-918576176"/>
+        <c:axId val="-1511261504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,10 +2244,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-918576720"/>
+        <c:crossAx val="-1511263136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,7 +2285,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1811,11 +2411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-918701200"/>
-        <c:axId val="-918700656"/>
+        <c:axId val="-1511258240"/>
+        <c:axId val="-1511259872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-918701200"/>
+        <c:axId val="-1511258240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,10 +2455,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-918700656"/>
+        <c:crossAx val="-1511259872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1866,7 +2466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-918700656"/>
+        <c:axId val="-1511259872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,10 +2514,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-918701200"/>
+        <c:crossAx val="-1511258240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1955,7 +2555,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2006,7 +2606,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2072,11 +2672,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-773652208"/>
-        <c:axId val="-773656016"/>
+        <c:axId val="-1511257696"/>
+        <c:axId val="-1511257152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-773652208"/>
+        <c:axId val="-1511257696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,10 +2716,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773656016"/>
+        <c:crossAx val="-1511257152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2127,7 +2727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-773656016"/>
+        <c:axId val="-1511257152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,10 +2775,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773652208"/>
+        <c:crossAx val="-1511257696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2216,7 +2816,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2242,6 +2842,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2267,7 +2868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2333,11 +2934,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-773655472"/>
-        <c:axId val="-773659280"/>
+        <c:axId val="-1511266944"/>
+        <c:axId val="-1511264224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-773655472"/>
+        <c:axId val="-1511266944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,10 +2978,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773659280"/>
+        <c:crossAx val="-1511264224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2388,7 +2989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-773659280"/>
+        <c:axId val="-1511264224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,10 +3037,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773655472"/>
+        <c:crossAx val="-1511266944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2477,7 +3078,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2564,11 +3165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-773654928"/>
-        <c:axId val="-773653840"/>
+        <c:axId val="-1725798752"/>
+        <c:axId val="-1508112048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-773654928"/>
+        <c:axId val="-1725798752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,10 +3209,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773653840"/>
+        <c:crossAx val="-1508112048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2619,7 +3220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-773653840"/>
+        <c:axId val="-1508112048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,10 +3268,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773654928"/>
+        <c:crossAx val="-1725798752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2708,7 +3309,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2790,7 +3391,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2866,11 +3467,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-773660368"/>
-        <c:axId val="-773651664"/>
+        <c:axId val="-1508106064"/>
+        <c:axId val="-1508107152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-773660368"/>
+        <c:axId val="-1508106064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,10 +3511,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773651664"/>
+        <c:crossAx val="-1508107152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2921,7 +3522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-773651664"/>
+        <c:axId val="-1508107152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,10 +3570,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773660368"/>
+        <c:crossAx val="-1508106064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3010,7 +3611,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3087,7 +3688,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3153,11 +3754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-773646768"/>
-        <c:axId val="-773659824"/>
+        <c:axId val="-1508104432"/>
+        <c:axId val="-1508111504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-773646768"/>
+        <c:axId val="-1508104432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,10 +3798,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773659824"/>
+        <c:crossAx val="-1508111504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3208,7 +3809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-773659824"/>
+        <c:axId val="-1508111504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,10 +3857,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773646768"/>
+        <c:crossAx val="-1508104432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3297,7 +3898,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3389,6 +3990,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5296,6 +5977,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9762,6 +11475,68 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10028,10 +11803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R197"/>
+  <dimension ref="A1:R220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="R201" sqref="R201"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M163" sqref="M163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11312,6 +13087,9 @@
       <c r="M167" s="9"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B168" s="2" t="s">
         <v>0</v>
       </c>
@@ -11365,6 +13143,7 @@
       </c>
     </row>
     <row r="169" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="10"/>
       <c r="B169" s="5" t="s">
         <v>1</v>
       </c>
@@ -11416,6 +13195,7 @@
       </c>
     </row>
     <row r="170" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="10"/>
       <c r="B170" s="5" t="s">
         <v>2</v>
       </c>
@@ -11467,6 +13247,7 @@
       </c>
     </row>
     <row r="171" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="10"/>
       <c r="B171" s="5" t="s">
         <v>3</v>
       </c>
@@ -11518,6 +13299,7 @@
       </c>
     </row>
     <row r="172" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="10"/>
       <c r="B172" s="5" t="s">
         <v>4</v>
       </c>
@@ -11569,6 +13351,7 @@
       </c>
     </row>
     <row r="173" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="10"/>
       <c r="B173" s="2" t="s">
         <v>12</v>
       </c>
@@ -11651,6 +13434,9 @@
       <c r="M191" s="9"/>
     </row>
     <row r="192" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B192" s="2" t="s">
         <v>0</v>
       </c>
@@ -11703,7 +13489,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="10"/>
       <c r="B193" s="5" t="s">
         <v>1</v>
       </c>
@@ -11754,7 +13541,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="10"/>
       <c r="B194" s="5" t="s">
         <v>2</v>
       </c>
@@ -11805,7 +13593,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="10"/>
       <c r="B195" s="5" t="s">
         <v>3</v>
       </c>
@@ -11856,7 +13645,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="10"/>
       <c r="B196" s="5" t="s">
         <v>4</v>
       </c>
@@ -11907,7 +13697,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="10"/>
       <c r="B197" s="2" t="s">
         <v>12</v>
       </c>
@@ -11972,19 +13763,371 @@
         <v>6</v>
       </c>
     </row>
+    <row r="214" spans="1:18" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="6"/>
+      <c r="B214" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="9"/>
+      <c r="M214" s="9"/>
+    </row>
+    <row r="215" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J215" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R215" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="10"/>
+      <c r="B216" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1">
+        <v>2</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1">
+        <v>2</v>
+      </c>
+      <c r="F216" s="1">
+        <v>1</v>
+      </c>
+      <c r="G216" s="1">
+        <v>1</v>
+      </c>
+      <c r="H216" s="1">
+        <v>1</v>
+      </c>
+      <c r="I216" s="1">
+        <v>1</v>
+      </c>
+      <c r="J216" s="10"/>
+      <c r="K216" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L216" s="1">
+        <v>1</v>
+      </c>
+      <c r="M216" s="1">
+        <v>1</v>
+      </c>
+      <c r="N216" s="1">
+        <v>2</v>
+      </c>
+      <c r="O216" s="1">
+        <v>1</v>
+      </c>
+      <c r="P216" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q216" s="1">
+        <v>1</v>
+      </c>
+      <c r="R216" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="10"/>
+      <c r="B217" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217" s="1">
+        <v>2</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1">
+        <v>1</v>
+      </c>
+      <c r="G217" s="1">
+        <v>2</v>
+      </c>
+      <c r="H217" s="1">
+        <v>2</v>
+      </c>
+      <c r="I217" s="1">
+        <v>2</v>
+      </c>
+      <c r="J217" s="10"/>
+      <c r="K217" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L217" s="1">
+        <v>1</v>
+      </c>
+      <c r="M217" s="1">
+        <v>2</v>
+      </c>
+      <c r="N217" s="1">
+        <v>2</v>
+      </c>
+      <c r="O217" s="1">
+        <v>1</v>
+      </c>
+      <c r="P217" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q217" s="1">
+        <v>2</v>
+      </c>
+      <c r="R217" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="10"/>
+      <c r="B218" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="1">
+        <v>2</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1">
+        <v>2</v>
+      </c>
+      <c r="G218" s="1">
+        <v>2</v>
+      </c>
+      <c r="H218" s="1">
+        <v>1</v>
+      </c>
+      <c r="I218" s="1">
+        <v>2</v>
+      </c>
+      <c r="J218" s="10"/>
+      <c r="K218" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L218" s="1">
+        <v>1</v>
+      </c>
+      <c r="M218" s="1">
+        <v>1</v>
+      </c>
+      <c r="N218" s="1">
+        <v>1</v>
+      </c>
+      <c r="O218" s="1">
+        <v>2</v>
+      </c>
+      <c r="P218" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q218" s="1">
+        <v>1</v>
+      </c>
+      <c r="R218" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="10"/>
+      <c r="B219" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2</v>
+      </c>
+      <c r="D219" s="1">
+        <v>1</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1</v>
+      </c>
+      <c r="G219" s="1">
+        <v>1</v>
+      </c>
+      <c r="H219" s="1">
+        <v>1</v>
+      </c>
+      <c r="I219" s="1">
+        <v>1</v>
+      </c>
+      <c r="J219" s="10"/>
+      <c r="K219" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L219" s="1">
+        <v>1</v>
+      </c>
+      <c r="M219" s="1">
+        <v>1</v>
+      </c>
+      <c r="N219" s="1">
+        <v>2</v>
+      </c>
+      <c r="O219" s="1">
+        <v>1</v>
+      </c>
+      <c r="P219" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q219" s="1">
+        <v>1</v>
+      </c>
+      <c r="R219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="10"/>
+      <c r="B220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="1">
+        <f>SUM(C216:C219)</f>
+        <v>8</v>
+      </c>
+      <c r="D220" s="1">
+        <f>SUM(D216:D219)</f>
+        <v>4</v>
+      </c>
+      <c r="E220" s="1">
+        <f t="shared" ref="E220:I220" si="11">SUM(E216:E219)</f>
+        <v>5</v>
+      </c>
+      <c r="F220" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G220" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="H220" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I220" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="J220" s="10"/>
+      <c r="K220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L220" s="1">
+        <f>SUM(L216:L219)</f>
+        <v>4</v>
+      </c>
+      <c r="M220" s="1">
+        <f>SUM(M216:M219)</f>
+        <v>5</v>
+      </c>
+      <c r="N220" s="1">
+        <f t="shared" ref="N220:R220" si="12">SUM(N216:N219)</f>
+        <v>7</v>
+      </c>
+      <c r="O220" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="P220" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="Q220" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="R220" s="1">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B191:M191"/>
-    <mergeCell ref="J192:J197"/>
-    <mergeCell ref="B167:M167"/>
-    <mergeCell ref="J168:J173"/>
-    <mergeCell ref="B143:M143"/>
+  <mergeCells count="16">
+    <mergeCell ref="B214:M214"/>
+    <mergeCell ref="J215:J220"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="A168:A173"/>
     <mergeCell ref="B119:M119"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B48:M48"/>
     <mergeCell ref="B72:M72"/>
     <mergeCell ref="B96:M96"/>
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="J192:J197"/>
+    <mergeCell ref="B167:M167"/>
+    <mergeCell ref="J168:J173"/>
+    <mergeCell ref="B143:M143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="30">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Minggu 1</t>
+  </si>
+  <si>
+    <t>HARI 11</t>
   </si>
 </sst>
 </file>
@@ -349,11 +352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511256608"/>
-        <c:axId val="-1511268576"/>
+        <c:axId val="-531641520"/>
+        <c:axId val="-531639888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511256608"/>
+        <c:axId val="-531641520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511268576"/>
+        <c:crossAx val="-531639888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -403,7 +406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511268576"/>
+        <c:axId val="-531639888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511256608"/>
+        <c:crossAx val="-531641520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -650,11 +653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1508112592"/>
-        <c:axId val="-1508106608"/>
+        <c:axId val="-309712784"/>
+        <c:axId val="-309717680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1508112592"/>
+        <c:axId val="-309712784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1508106608"/>
+        <c:crossAx val="-309717680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -705,7 +708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1508106608"/>
+        <c:axId val="-309717680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1508112592"/>
+        <c:crossAx val="-309712784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -942,11 +945,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1508110960"/>
-        <c:axId val="-1508114224"/>
+        <c:axId val="-309725296"/>
+        <c:axId val="-309713328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1508110960"/>
+        <c:axId val="-309725296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1508114224"/>
+        <c:crossAx val="-309713328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -997,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1508114224"/>
+        <c:axId val="-309713328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +1051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1508110960"/>
+        <c:crossAx val="-309725296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1244,11 +1247,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1506410944"/>
-        <c:axId val="-1506414752"/>
+        <c:axId val="-309716048"/>
+        <c:axId val="-309711696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1506410944"/>
+        <c:axId val="-309716048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506414752"/>
+        <c:crossAx val="-309711696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1299,7 +1302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1506414752"/>
+        <c:axId val="-309711696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506410944"/>
+        <c:crossAx val="-309716048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1536,11 +1539,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1506421824"/>
-        <c:axId val="-1506413664"/>
+        <c:axId val="-309720944"/>
+        <c:axId val="-309719856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1506421824"/>
+        <c:axId val="-309720944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506413664"/>
+        <c:crossAx val="-309719856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1591,7 +1594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1506413664"/>
+        <c:axId val="-309719856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1645,606 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1506421824"/>
+        <c:crossAx val="-309720944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0025371828521436E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.9155301837270341"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$173:$I$173</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-265764176"/>
+        <c:axId val="-265771248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-265764176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-265771248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-265771248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-265764176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.21759259259259259"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61019320501603957"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$243:$R$243</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-265771792"/>
+        <c:axId val="-265764720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-265771792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-265764720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-265764720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-265771792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1796,11 +2398,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511266400"/>
-        <c:axId val="-1511262592"/>
+        <c:axId val="-531637712"/>
+        <c:axId val="-531828304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511266400"/>
+        <c:axId val="-531637712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +2444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511262592"/>
+        <c:crossAx val="-531828304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,7 +2452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511262592"/>
+        <c:axId val="-531828304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +2503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511266400"/>
+        <c:crossAx val="-531637712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,11 +2743,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511263136"/>
-        <c:axId val="-1511261504"/>
+        <c:axId val="-373941376"/>
+        <c:axId val="-373935392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511263136"/>
+        <c:axId val="-373941376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +2790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511261504"/>
+        <c:crossAx val="-373935392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511261504"/>
+        <c:axId val="-373935392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511263136"/>
+        <c:crossAx val="-373941376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2411,11 +3013,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511258240"/>
-        <c:axId val="-1511259872"/>
+        <c:axId val="-373948448"/>
+        <c:axId val="-373940832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511258240"/>
+        <c:axId val="-373948448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2458,7 +3060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511259872"/>
+        <c:crossAx val="-373940832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2466,7 +3068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511259872"/>
+        <c:axId val="-373940832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,7 +3119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511258240"/>
+        <c:crossAx val="-373948448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2672,11 +3274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511257696"/>
-        <c:axId val="-1511257152"/>
+        <c:axId val="-373937024"/>
+        <c:axId val="-373939744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511257696"/>
+        <c:axId val="-373937024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +3321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511257152"/>
+        <c:crossAx val="-373939744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +3329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511257152"/>
+        <c:axId val="-373939744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +3380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511257696"/>
+        <c:crossAx val="-373937024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2842,7 +3444,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2934,11 +3535,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1511266944"/>
-        <c:axId val="-1511264224"/>
+        <c:axId val="-373933760"/>
+        <c:axId val="-373944640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1511266944"/>
+        <c:axId val="-373933760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,7 +3582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511264224"/>
+        <c:crossAx val="-373944640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2989,7 +3590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1511264224"/>
+        <c:axId val="-373944640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,7 +3641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1511266944"/>
+        <c:crossAx val="-373933760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3165,11 +3766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1725798752"/>
-        <c:axId val="-1508112048"/>
+        <c:axId val="-373938656"/>
+        <c:axId val="-373944096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1725798752"/>
+        <c:axId val="-373938656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1508112048"/>
+        <c:crossAx val="-373944096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3220,7 +3821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1508112048"/>
+        <c:axId val="-373944096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,7 +3872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1725798752"/>
+        <c:crossAx val="-373938656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3467,11 +4068,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1508106064"/>
-        <c:axId val="-1508107152"/>
+        <c:axId val="-373948992"/>
+        <c:axId val="-373937568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1508106064"/>
+        <c:axId val="-373948992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3514,7 +4115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1508107152"/>
+        <c:crossAx val="-373937568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3522,7 +4123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1508107152"/>
+        <c:axId val="-373937568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3573,7 +4174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1508106064"/>
+        <c:crossAx val="-373948992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3754,11 +4355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1508104432"/>
-        <c:axId val="-1508111504"/>
+        <c:axId val="-373942464"/>
+        <c:axId val="-373936480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1508104432"/>
+        <c:axId val="-373942464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,7 +4402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1508111504"/>
+        <c:crossAx val="-373936480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3809,7 +4410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1508111504"/>
+        <c:axId val="-373936480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3860,7 +4461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1508104432"/>
+        <c:crossAx val="-373942464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4070,6 +4671,86 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6494,6 +7175,1038 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11537,6 +13250,68 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>122143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11803,10 +13578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R220"/>
+  <dimension ref="A1:R243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M163" sqref="M163"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T247" sqref="T247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14110,24 +15885,374 @@
         <v>6</v>
       </c>
     </row>
+    <row r="237" spans="1:18" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="6"/>
+      <c r="B237" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
+      <c r="L237" s="9"/>
+      <c r="M237" s="9"/>
+    </row>
+    <row r="238" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J238" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K238" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q238" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R238" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="10"/>
+      <c r="B239" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="1">
+        <v>2</v>
+      </c>
+      <c r="D239" s="1">
+        <v>1</v>
+      </c>
+      <c r="E239" s="1">
+        <v>2</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1</v>
+      </c>
+      <c r="G239" s="1">
+        <v>1</v>
+      </c>
+      <c r="H239" s="1">
+        <v>1</v>
+      </c>
+      <c r="I239" s="1">
+        <v>1</v>
+      </c>
+      <c r="J239" s="10"/>
+      <c r="K239" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L239" s="1">
+        <v>1</v>
+      </c>
+      <c r="M239" s="1">
+        <v>1</v>
+      </c>
+      <c r="N239" s="1">
+        <v>2</v>
+      </c>
+      <c r="O239" s="1">
+        <v>3</v>
+      </c>
+      <c r="P239" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="1">
+        <v>1</v>
+      </c>
+      <c r="R239" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="10"/>
+      <c r="B240" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240" s="1">
+        <v>2</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1</v>
+      </c>
+      <c r="F240" s="1">
+        <v>1</v>
+      </c>
+      <c r="G240" s="1">
+        <v>2</v>
+      </c>
+      <c r="H240" s="1">
+        <v>2</v>
+      </c>
+      <c r="I240" s="1">
+        <v>2</v>
+      </c>
+      <c r="J240" s="10"/>
+      <c r="K240" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L240" s="1">
+        <v>1</v>
+      </c>
+      <c r="M240" s="1">
+        <v>2</v>
+      </c>
+      <c r="N240" s="1">
+        <v>2</v>
+      </c>
+      <c r="O240" s="1">
+        <v>2</v>
+      </c>
+      <c r="P240" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q240" s="1">
+        <v>2</v>
+      </c>
+      <c r="R240" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="10"/>
+      <c r="B241" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2</v>
+      </c>
+      <c r="D241" s="1">
+        <v>1</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1</v>
+      </c>
+      <c r="F241" s="1">
+        <v>2</v>
+      </c>
+      <c r="G241" s="1">
+        <v>2</v>
+      </c>
+      <c r="H241" s="1">
+        <v>1</v>
+      </c>
+      <c r="I241" s="1">
+        <v>2</v>
+      </c>
+      <c r="J241" s="10"/>
+      <c r="K241" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L241" s="1">
+        <v>1</v>
+      </c>
+      <c r="M241" s="1">
+        <v>1</v>
+      </c>
+      <c r="N241" s="1">
+        <v>1</v>
+      </c>
+      <c r="O241" s="1">
+        <v>2</v>
+      </c>
+      <c r="P241" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q241" s="1">
+        <v>1</v>
+      </c>
+      <c r="R241" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="10"/>
+      <c r="B242" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="1">
+        <v>2</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1">
+        <v>1</v>
+      </c>
+      <c r="G242" s="1">
+        <v>1</v>
+      </c>
+      <c r="H242" s="1">
+        <v>1</v>
+      </c>
+      <c r="I242" s="1">
+        <v>1</v>
+      </c>
+      <c r="J242" s="10"/>
+      <c r="K242" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L242" s="1">
+        <v>1</v>
+      </c>
+      <c r="M242" s="1">
+        <v>1</v>
+      </c>
+      <c r="N242" s="1">
+        <v>2</v>
+      </c>
+      <c r="O242" s="1">
+        <v>3</v>
+      </c>
+      <c r="P242" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q242" s="1">
+        <v>1</v>
+      </c>
+      <c r="R242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="10"/>
+      <c r="B243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="1">
+        <f>SUM(C239:C242)</f>
+        <v>8</v>
+      </c>
+      <c r="D243" s="1">
+        <f>SUM(D239:D242)</f>
+        <v>4</v>
+      </c>
+      <c r="E243" s="1">
+        <f t="shared" ref="E243:I243" si="13">SUM(E239:E242)</f>
+        <v>5</v>
+      </c>
+      <c r="F243" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G243" s="1">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="H243" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I243" s="1">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="J243" s="10"/>
+      <c r="K243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L243" s="1">
+        <f>SUM(L239:L242)</f>
+        <v>4</v>
+      </c>
+      <c r="M243" s="1">
+        <f>SUM(M239:M242)</f>
+        <v>5</v>
+      </c>
+      <c r="N243" s="1">
+        <f t="shared" ref="N243:R243" si="14">SUM(N239:N242)</f>
+        <v>7</v>
+      </c>
+      <c r="O243" s="1">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="P243" s="1">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="Q243" s="1">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="R243" s="1">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B214:M214"/>
-    <mergeCell ref="J215:J220"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="A168:A173"/>
+  <mergeCells count="19">
+    <mergeCell ref="B167:M167"/>
+    <mergeCell ref="J168:J173"/>
+    <mergeCell ref="B143:M143"/>
+    <mergeCell ref="B237:M237"/>
+    <mergeCell ref="A238:A243"/>
+    <mergeCell ref="J238:J243"/>
     <mergeCell ref="B119:M119"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="B48:M48"/>
     <mergeCell ref="B72:M72"/>
     <mergeCell ref="B96:M96"/>
+    <mergeCell ref="B214:M214"/>
+    <mergeCell ref="J215:J220"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="A168:A173"/>
     <mergeCell ref="B191:M191"/>
     <mergeCell ref="J192:J197"/>
-    <mergeCell ref="B167:M167"/>
-    <mergeCell ref="J168:J173"/>
-    <mergeCell ref="B143:M143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="30">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -352,11 +352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-531641520"/>
-        <c:axId val="-531639888"/>
+        <c:axId val="-1249522608"/>
+        <c:axId val="-1249529136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-531641520"/>
+        <c:axId val="-1249522608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-531639888"/>
+        <c:crossAx val="-1249529136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -406,7 +406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-531639888"/>
+        <c:axId val="-1249529136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-531641520"/>
+        <c:crossAx val="-1249522608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -551,7 +551,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -653,11 +652,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-309712784"/>
-        <c:axId val="-309717680"/>
+        <c:axId val="-1251072976"/>
+        <c:axId val="-1251073520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-309712784"/>
+        <c:axId val="-1251072976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309717680"/>
+        <c:crossAx val="-1251073520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -708,7 +707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-309717680"/>
+        <c:axId val="-1251073520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,7 +758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309712784"/>
+        <c:crossAx val="-1251072976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -853,7 +852,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -945,11 +943,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-309725296"/>
-        <c:axId val="-309713328"/>
+        <c:axId val="-1251079504"/>
+        <c:axId val="-1251080048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-309725296"/>
+        <c:axId val="-1251079504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309713328"/>
+        <c:crossAx val="-1251080048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1000,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-309713328"/>
+        <c:axId val="-1251080048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309725296"/>
+        <c:crossAx val="-1251079504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1247,11 +1245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-309716048"/>
-        <c:axId val="-309711696"/>
+        <c:axId val="-1251086032"/>
+        <c:axId val="-1251085488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-309716048"/>
+        <c:axId val="-1251086032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1292,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309711696"/>
+        <c:crossAx val="-1251085488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1302,7 +1300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-309711696"/>
+        <c:axId val="-1251085488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309716048"/>
+        <c:crossAx val="-1251086032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1539,11 +1537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-309720944"/>
-        <c:axId val="-309719856"/>
+        <c:axId val="-1189230784"/>
+        <c:axId val="-1189223712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-309720944"/>
+        <c:axId val="-1189230784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309719856"/>
+        <c:crossAx val="-1189223712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1594,7 +1592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-309719856"/>
+        <c:axId val="-1189223712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309720944"/>
+        <c:crossAx val="-1189230784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1841,11 +1839,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-265764176"/>
-        <c:axId val="-265771248"/>
+        <c:axId val="-1189236224"/>
+        <c:axId val="-1189230240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-265764176"/>
+        <c:axId val="-1189236224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-265771248"/>
+        <c:crossAx val="-1189230240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1896,7 +1894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-265771248"/>
+        <c:axId val="-1189230240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-265764176"/>
+        <c:crossAx val="-1189236224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,11 +2136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-265771792"/>
-        <c:axId val="-265764720"/>
+        <c:axId val="-1189236768"/>
+        <c:axId val="-1189224800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-265771792"/>
+        <c:axId val="-1189236768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-265764720"/>
+        <c:crossAx val="-1189224800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2193,7 +2191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-265764720"/>
+        <c:axId val="-1189224800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,7 +2242,596 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-265771792"/>
+        <c:crossAx val="-1189236768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0025371828521436E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.9155301837270341"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$173:$I$173</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1154897280"/>
+        <c:axId val="-1154898912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1154897280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1154898912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1154898912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1154897280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$267:$R$267</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1154000128"/>
+        <c:axId val="-1153990880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1154000128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1153990880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1153990880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1154000128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2398,11 +2985,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-531637712"/>
-        <c:axId val="-531828304"/>
+        <c:axId val="-1249530768"/>
+        <c:axId val="-1249519888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-531637712"/>
+        <c:axId val="-1249530768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +3031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-531828304"/>
+        <c:crossAx val="-1249519888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2452,7 +3039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-531828304"/>
+        <c:axId val="-1249519888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-531637712"/>
+        <c:crossAx val="-1249530768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2743,11 +3330,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-373941376"/>
-        <c:axId val="-373935392"/>
+        <c:axId val="-1249525328"/>
+        <c:axId val="-1249521520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-373941376"/>
+        <c:axId val="-1249525328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,7 +3377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373935392"/>
+        <c:crossAx val="-1249521520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2798,7 +3385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-373935392"/>
+        <c:axId val="-1249521520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,7 +3436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373941376"/>
+        <c:crossAx val="-1249525328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3013,11 +3600,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-373948448"/>
-        <c:axId val="-373940832"/>
+        <c:axId val="-1249516624"/>
+        <c:axId val="-1249528592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-373948448"/>
+        <c:axId val="-1249516624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,7 +3647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373940832"/>
+        <c:crossAx val="-1249528592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3068,7 +3655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-373940832"/>
+        <c:axId val="-1249528592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373948448"/>
+        <c:crossAx val="-1249516624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3274,11 +3861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-373937024"/>
-        <c:axId val="-373939744"/>
+        <c:axId val="-1249524240"/>
+        <c:axId val="-1249523696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-373937024"/>
+        <c:axId val="-1249524240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373939744"/>
+        <c:crossAx val="-1249523696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3329,7 +3916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-373939744"/>
+        <c:axId val="-1249523696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,7 +3967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373937024"/>
+        <c:crossAx val="-1249524240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3535,11 +4122,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-373933760"/>
-        <c:axId val="-373944640"/>
+        <c:axId val="-1251075152"/>
+        <c:axId val="-1251083312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-373933760"/>
+        <c:axId val="-1251075152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +4169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373944640"/>
+        <c:crossAx val="-1251083312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3590,7 +4177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-373944640"/>
+        <c:axId val="-1251083312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,7 +4228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373933760"/>
+        <c:crossAx val="-1251075152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,11 +4353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-373938656"/>
-        <c:axId val="-373944096"/>
+        <c:axId val="-1251077328"/>
+        <c:axId val="-1251084944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-373938656"/>
+        <c:axId val="-1251077328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +4400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373944096"/>
+        <c:crossAx val="-1251084944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3821,7 +4408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-373944096"/>
+        <c:axId val="-1251084944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3872,7 +4459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373938656"/>
+        <c:crossAx val="-1251077328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3966,7 +4553,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4068,11 +4654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-373948992"/>
-        <c:axId val="-373937568"/>
+        <c:axId val="-1251074064"/>
+        <c:axId val="-1251086576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-373948992"/>
+        <c:axId val="-1251074064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,7 +4701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373937568"/>
+        <c:crossAx val="-1251086576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4123,7 +4709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-373937568"/>
+        <c:axId val="-1251086576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4174,7 +4760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373948992"/>
+        <c:crossAx val="-1251074064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4263,7 +4849,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4355,11 +4940,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-373942464"/>
-        <c:axId val="-373936480"/>
+        <c:axId val="-1251076784"/>
+        <c:axId val="-1251081136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-373942464"/>
+        <c:axId val="-1251076784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4402,7 +4987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373936480"/>
+        <c:crossAx val="-1251081136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4410,7 +4995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-373936480"/>
+        <c:axId val="-1251081136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,7 +5046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-373942464"/>
+        <c:crossAx val="-1251076784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4751,6 +5336,86 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8207,6 +8872,1038 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13312,6 +15009,68 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>169209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13578,10 +15337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R243"/>
+  <dimension ref="A1:R267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T247" sqref="T247"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q270" sqref="Q270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16232,20 +17991,370 @@
         <v>6</v>
       </c>
     </row>
+    <row r="261" spans="1:18" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="6"/>
+      <c r="B261" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="9"/>
+      <c r="K261" s="9"/>
+      <c r="L261" s="9"/>
+      <c r="M261" s="9"/>
+    </row>
+    <row r="262" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J262" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M262" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P262" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q262" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R262" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="10"/>
+      <c r="B263" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="1">
+        <v>2</v>
+      </c>
+      <c r="D263" s="1">
+        <v>1</v>
+      </c>
+      <c r="E263" s="1">
+        <v>2</v>
+      </c>
+      <c r="F263" s="1">
+        <v>1</v>
+      </c>
+      <c r="G263" s="1">
+        <v>1</v>
+      </c>
+      <c r="H263" s="1">
+        <v>1</v>
+      </c>
+      <c r="I263" s="1">
+        <v>1</v>
+      </c>
+      <c r="J263" s="10"/>
+      <c r="K263" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L263" s="1">
+        <v>1</v>
+      </c>
+      <c r="M263" s="1">
+        <v>1</v>
+      </c>
+      <c r="N263" s="1">
+        <v>2</v>
+      </c>
+      <c r="O263" s="1">
+        <v>3</v>
+      </c>
+      <c r="P263" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q263" s="1">
+        <v>1</v>
+      </c>
+      <c r="R263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="10"/>
+      <c r="B264" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="1">
+        <v>2</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1</v>
+      </c>
+      <c r="E264" s="1">
+        <v>1</v>
+      </c>
+      <c r="F264" s="1">
+        <v>1</v>
+      </c>
+      <c r="G264" s="1">
+        <v>2</v>
+      </c>
+      <c r="H264" s="1">
+        <v>2</v>
+      </c>
+      <c r="I264" s="1">
+        <v>2</v>
+      </c>
+      <c r="J264" s="10"/>
+      <c r="K264" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L264" s="1">
+        <v>1</v>
+      </c>
+      <c r="M264" s="1">
+        <v>2</v>
+      </c>
+      <c r="N264" s="1">
+        <v>2</v>
+      </c>
+      <c r="O264" s="1">
+        <v>2</v>
+      </c>
+      <c r="P264" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q264" s="1">
+        <v>2</v>
+      </c>
+      <c r="R264" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="10"/>
+      <c r="B265" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" s="1">
+        <v>2</v>
+      </c>
+      <c r="D265" s="1">
+        <v>1</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1</v>
+      </c>
+      <c r="F265" s="1">
+        <v>2</v>
+      </c>
+      <c r="G265" s="1">
+        <v>2</v>
+      </c>
+      <c r="H265" s="1">
+        <v>1</v>
+      </c>
+      <c r="I265" s="1">
+        <v>2</v>
+      </c>
+      <c r="J265" s="10"/>
+      <c r="K265" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L265" s="1">
+        <v>1</v>
+      </c>
+      <c r="M265" s="1">
+        <v>1</v>
+      </c>
+      <c r="N265" s="1">
+        <v>1</v>
+      </c>
+      <c r="O265" s="1">
+        <v>2</v>
+      </c>
+      <c r="P265" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q265" s="1">
+        <v>1</v>
+      </c>
+      <c r="R265" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="10"/>
+      <c r="B266" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="1">
+        <v>2</v>
+      </c>
+      <c r="D266" s="1">
+        <v>1</v>
+      </c>
+      <c r="E266" s="1">
+        <v>1</v>
+      </c>
+      <c r="F266" s="1">
+        <v>1</v>
+      </c>
+      <c r="G266" s="1">
+        <v>1</v>
+      </c>
+      <c r="H266" s="1">
+        <v>1</v>
+      </c>
+      <c r="I266" s="1">
+        <v>1</v>
+      </c>
+      <c r="J266" s="10"/>
+      <c r="K266" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L266" s="1">
+        <v>1</v>
+      </c>
+      <c r="M266" s="1">
+        <v>1</v>
+      </c>
+      <c r="N266" s="1">
+        <v>2</v>
+      </c>
+      <c r="O266" s="1">
+        <v>3</v>
+      </c>
+      <c r="P266" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q266" s="1">
+        <v>1</v>
+      </c>
+      <c r="R266" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="10"/>
+      <c r="B267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="1">
+        <f>SUM(C263:C266)</f>
+        <v>8</v>
+      </c>
+      <c r="D267" s="1">
+        <f>SUM(D263:D266)</f>
+        <v>4</v>
+      </c>
+      <c r="E267" s="1">
+        <f t="shared" ref="E267:I267" si="15">SUM(E263:E266)</f>
+        <v>5</v>
+      </c>
+      <c r="F267" s="1">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="G267" s="1">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="H267" s="1">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="I267" s="1">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="J267" s="10"/>
+      <c r="K267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L267" s="1">
+        <f>SUM(L263:L266)</f>
+        <v>4</v>
+      </c>
+      <c r="M267" s="1">
+        <f>SUM(M263:M266)</f>
+        <v>5</v>
+      </c>
+      <c r="N267" s="1">
+        <f t="shared" ref="N267:R267" si="16">SUM(N263:N266)</f>
+        <v>7</v>
+      </c>
+      <c r="O267" s="1">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="P267" s="1">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="Q267" s="1">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="R267" s="1">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="B261:M261"/>
+    <mergeCell ref="A262:A267"/>
+    <mergeCell ref="J262:J267"/>
+    <mergeCell ref="B119:M119"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B96:M96"/>
     <mergeCell ref="B167:M167"/>
     <mergeCell ref="J168:J173"/>
     <mergeCell ref="B143:M143"/>
     <mergeCell ref="B237:M237"/>
     <mergeCell ref="A238:A243"/>
     <mergeCell ref="J238:J243"/>
-    <mergeCell ref="B119:M119"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B48:M48"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B96:M96"/>
     <mergeCell ref="B214:M214"/>
     <mergeCell ref="J215:J220"/>
     <mergeCell ref="A215:A220"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasan\Desktop\Project TKPL\Projek TKKPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackyson\Desktop\Projek TKKPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="32">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -115,6 +115,12 @@
   <si>
     <t>HARI 11</t>
   </si>
+  <si>
+    <t>HARI 12</t>
+  </si>
+  <si>
+    <t>EDIT TAMPILAN</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -198,11 +204,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,6 +272,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,11 +404,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1249522608"/>
-        <c:axId val="-1249529136"/>
+        <c:axId val="830789424"/>
+        <c:axId val="830789968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1249522608"/>
+        <c:axId val="830789424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249529136"/>
+        <c:crossAx val="830789968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -406,7 +458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1249529136"/>
+        <c:axId val="830789968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249522608"/>
+        <c:crossAx val="830789424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -551,6 +603,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -652,11 +705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1251072976"/>
-        <c:axId val="-1251073520"/>
+        <c:axId val="835286032"/>
+        <c:axId val="835287120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1251072976"/>
+        <c:axId val="835286032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251073520"/>
+        <c:crossAx val="835287120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -707,7 +760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1251073520"/>
+        <c:axId val="835287120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251072976"/>
+        <c:crossAx val="835286032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -852,6 +905,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -943,11 +997,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1251079504"/>
-        <c:axId val="-1251080048"/>
+        <c:axId val="835289296"/>
+        <c:axId val="835502992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1251079504"/>
+        <c:axId val="835289296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +1044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251080048"/>
+        <c:crossAx val="835502992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,7 +1052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1251080048"/>
+        <c:axId val="835502992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251079504"/>
+        <c:crossAx val="835289296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1245,11 +1299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1251086032"/>
-        <c:axId val="-1251085488"/>
+        <c:axId val="835517136"/>
+        <c:axId val="835506256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1251086032"/>
+        <c:axId val="835517136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251085488"/>
+        <c:crossAx val="835506256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1300,7 +1354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1251085488"/>
+        <c:axId val="835506256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251086032"/>
+        <c:crossAx val="835517136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1537,11 +1591,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1189230784"/>
-        <c:axId val="-1189223712"/>
+        <c:axId val="835515504"/>
+        <c:axId val="835513328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1189230784"/>
+        <c:axId val="835515504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,7 +1638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1189223712"/>
+        <c:crossAx val="835513328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1592,7 +1646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1189223712"/>
+        <c:axId val="835513328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1189230784"/>
+        <c:crossAx val="835515504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1839,11 +1893,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1189236224"/>
-        <c:axId val="-1189230240"/>
+        <c:axId val="835504624"/>
+        <c:axId val="835516048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1189236224"/>
+        <c:axId val="835504624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1189230240"/>
+        <c:crossAx val="835516048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1894,7 +1948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1189230240"/>
+        <c:axId val="835516048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1189236224"/>
+        <c:crossAx val="835504624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2136,11 +2190,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1189236768"/>
-        <c:axId val="-1189224800"/>
+        <c:axId val="835512240"/>
+        <c:axId val="835513872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1189236768"/>
+        <c:axId val="835512240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1189224800"/>
+        <c:crossAx val="835513872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2191,7 +2245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1189224800"/>
+        <c:axId val="835513872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1189236768"/>
+        <c:crossAx val="835512240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2438,11 +2492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1154897280"/>
-        <c:axId val="-1154898912"/>
+        <c:axId val="835509520"/>
+        <c:axId val="835507344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1154897280"/>
+        <c:axId val="835509520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1154898912"/>
+        <c:crossAx val="835507344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2493,7 +2547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1154898912"/>
+        <c:axId val="835507344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,7 +2598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1154897280"/>
+        <c:crossAx val="835509520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2725,11 +2779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1154000128"/>
-        <c:axId val="-1153990880"/>
+        <c:axId val="835507888"/>
+        <c:axId val="835514960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1154000128"/>
+        <c:axId val="835507888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +2826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1153990880"/>
+        <c:crossAx val="835514960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2780,7 +2834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1153990880"/>
+        <c:axId val="835514960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,7 +2885,642 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1154000128"/>
+        <c:crossAx val="835507888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0025371828521436E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.9155301837270341"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="788161264"/>
+        <c:axId val="788160176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="788161264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788160176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="788160176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788161264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu 2 - Senin -- Jumat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$285:$P$285</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$290:$P$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="879876192"/>
+        <c:axId val="879893056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="879876192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879893056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="879893056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879876192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2985,11 +3674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1249530768"/>
-        <c:axId val="-1249519888"/>
+        <c:axId val="830779632"/>
+        <c:axId val="830785616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1249530768"/>
+        <c:axId val="830779632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249519888"/>
+        <c:crossAx val="830785616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3039,7 +3728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1249519888"/>
+        <c:axId val="830785616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3779,298 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249530768"/>
+        <c:crossAx val="830779632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu 2 -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sabtu &amp; Minggu</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$285:$T$285</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$290:$T$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="879900672"/>
+        <c:axId val="879901216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="879900672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879901216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="879901216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879900672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3330,11 +4310,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1249525328"/>
-        <c:axId val="-1249521520"/>
+        <c:axId val="830790512"/>
+        <c:axId val="830791056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1249525328"/>
+        <c:axId val="830790512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,7 +4357,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249521520"/>
+        <c:crossAx val="830791056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3385,7 +4365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1249521520"/>
+        <c:axId val="830791056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +4416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249525328"/>
+        <c:crossAx val="830790512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3600,11 +4580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1249516624"/>
-        <c:axId val="-1249528592"/>
+        <c:axId val="835290384"/>
+        <c:axId val="835279504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1249516624"/>
+        <c:axId val="835290384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +4627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249528592"/>
+        <c:crossAx val="835279504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3655,7 +4635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1249528592"/>
+        <c:axId val="835279504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,7 +4686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249516624"/>
+        <c:crossAx val="835290384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3861,11 +4841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1249524240"/>
-        <c:axId val="-1249523696"/>
+        <c:axId val="835283312"/>
+        <c:axId val="835280048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1249524240"/>
+        <c:axId val="835283312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +4888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249523696"/>
+        <c:crossAx val="835280048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3916,7 +4896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1249523696"/>
+        <c:axId val="835280048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +4947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1249524240"/>
+        <c:crossAx val="835283312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4122,11 +5102,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1251075152"/>
-        <c:axId val="-1251083312"/>
+        <c:axId val="835282224"/>
+        <c:axId val="835277872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1251075152"/>
+        <c:axId val="835282224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +5149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251083312"/>
+        <c:crossAx val="835277872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4177,7 +5157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1251083312"/>
+        <c:axId val="835277872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4228,7 +5208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251075152"/>
+        <c:crossAx val="835282224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4353,11 +5333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1251077328"/>
-        <c:axId val="-1251084944"/>
+        <c:axId val="835291472"/>
+        <c:axId val="835287664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1251077328"/>
+        <c:axId val="835291472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,7 +5380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251084944"/>
+        <c:crossAx val="835287664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4408,7 +5388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1251084944"/>
+        <c:axId val="835287664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,7 +5439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251077328"/>
+        <c:crossAx val="835291472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4553,6 +5533,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4654,11 +5635,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1251074064"/>
-        <c:axId val="-1251086576"/>
+        <c:axId val="835284400"/>
+        <c:axId val="835284944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1251074064"/>
+        <c:axId val="835284400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,7 +5682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251086576"/>
+        <c:crossAx val="835284944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4709,7 +5690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1251086576"/>
+        <c:axId val="835284944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4760,7 +5741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251074064"/>
+        <c:crossAx val="835284400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4849,6 +5830,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4940,11 +5922,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1251076784"/>
-        <c:axId val="-1251081136"/>
+        <c:axId val="835276784"/>
+        <c:axId val="835277328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1251076784"/>
+        <c:axId val="835276784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,7 +5969,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251081136"/>
+        <c:crossAx val="835277328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4995,7 +5977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1251081136"/>
+        <c:axId val="835277328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5046,7 +6028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1251076784"/>
+        <c:crossAx val="835276784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5455,7 +6437,127 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10419,7 +11521,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15071,6 +17721,98 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>23532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>515472</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>515472</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15337,16 +18079,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R267"/>
+  <dimension ref="A1:T290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q270" sqref="Q270"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T280" sqref="T280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17994,7 +20737,7 @@
     <row r="261" spans="1:18" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
@@ -18338,8 +21081,377 @@
         <v>6</v>
       </c>
     </row>
+    <row r="284" spans="1:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="6"/>
+      <c r="B284" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
+      <c r="I284" s="9"/>
+      <c r="J284" s="9"/>
+      <c r="K284" s="9"/>
+      <c r="L284" s="9"/>
+      <c r="M284" s="9"/>
+    </row>
+    <row r="285" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H285" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J285" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K285" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M285" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P285" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R285" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S285" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T285" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="10"/>
+      <c r="B286" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1">
+        <v>2</v>
+      </c>
+      <c r="D286" s="1">
+        <v>1</v>
+      </c>
+      <c r="E286" s="1">
+        <v>2</v>
+      </c>
+      <c r="F286" s="1">
+        <v>1</v>
+      </c>
+      <c r="G286" s="1">
+        <v>1</v>
+      </c>
+      <c r="H286" s="1">
+        <v>1</v>
+      </c>
+      <c r="I286" s="1">
+        <v>1</v>
+      </c>
+      <c r="J286" s="10"/>
+      <c r="K286" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L286" s="1">
+        <v>1</v>
+      </c>
+      <c r="M286" s="1">
+        <v>1</v>
+      </c>
+      <c r="N286" s="1">
+        <v>2</v>
+      </c>
+      <c r="O286" s="1">
+        <v>3</v>
+      </c>
+      <c r="P286" s="1">
+        <v>2</v>
+      </c>
+      <c r="R286" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S286" s="1">
+        <v>2</v>
+      </c>
+      <c r="T286" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="10"/>
+      <c r="B287" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C287" s="1">
+        <v>2</v>
+      </c>
+      <c r="D287" s="1">
+        <v>1</v>
+      </c>
+      <c r="E287" s="1">
+        <v>1</v>
+      </c>
+      <c r="F287" s="1">
+        <v>1</v>
+      </c>
+      <c r="G287" s="1">
+        <v>2</v>
+      </c>
+      <c r="H287" s="1">
+        <v>2</v>
+      </c>
+      <c r="I287" s="1">
+        <v>2</v>
+      </c>
+      <c r="J287" s="10"/>
+      <c r="K287" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L287" s="1">
+        <v>1</v>
+      </c>
+      <c r="M287" s="1">
+        <v>2</v>
+      </c>
+      <c r="N287" s="1">
+        <v>2</v>
+      </c>
+      <c r="O287" s="1">
+        <v>2</v>
+      </c>
+      <c r="P287" s="1">
+        <v>2</v>
+      </c>
+      <c r="R287" s="12"/>
+      <c r="S287" s="1">
+        <v>3</v>
+      </c>
+      <c r="T287" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="10"/>
+      <c r="B288" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="1">
+        <v>2</v>
+      </c>
+      <c r="D288" s="1">
+        <v>1</v>
+      </c>
+      <c r="E288" s="1">
+        <v>1</v>
+      </c>
+      <c r="F288" s="1">
+        <v>2</v>
+      </c>
+      <c r="G288" s="1">
+        <v>2</v>
+      </c>
+      <c r="H288" s="1">
+        <v>1</v>
+      </c>
+      <c r="I288" s="1">
+        <v>2</v>
+      </c>
+      <c r="J288" s="10"/>
+      <c r="K288" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L288" s="1">
+        <v>1</v>
+      </c>
+      <c r="M288" s="1">
+        <v>1</v>
+      </c>
+      <c r="N288" s="1">
+        <v>1</v>
+      </c>
+      <c r="O288" s="1">
+        <v>2</v>
+      </c>
+      <c r="P288" s="1">
+        <v>2</v>
+      </c>
+      <c r="R288" s="12"/>
+      <c r="S288" s="1">
+        <v>3</v>
+      </c>
+      <c r="T288" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="10"/>
+      <c r="B289" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" s="1">
+        <v>2</v>
+      </c>
+      <c r="D289" s="1">
+        <v>1</v>
+      </c>
+      <c r="E289" s="1">
+        <v>1</v>
+      </c>
+      <c r="F289" s="1">
+        <v>1</v>
+      </c>
+      <c r="G289" s="1">
+        <v>1</v>
+      </c>
+      <c r="H289" s="1">
+        <v>1</v>
+      </c>
+      <c r="I289" s="1">
+        <v>1</v>
+      </c>
+      <c r="J289" s="10"/>
+      <c r="K289" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L289" s="1">
+        <v>1</v>
+      </c>
+      <c r="M289" s="1">
+        <v>1</v>
+      </c>
+      <c r="N289" s="1">
+        <v>2</v>
+      </c>
+      <c r="O289" s="1">
+        <v>3</v>
+      </c>
+      <c r="P289" s="1">
+        <v>2</v>
+      </c>
+      <c r="R289" s="13"/>
+      <c r="S289" s="1">
+        <v>3</v>
+      </c>
+      <c r="T289" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="10"/>
+      <c r="B290" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="1">
+        <f>SUM(C286:C289)</f>
+        <v>8</v>
+      </c>
+      <c r="D290" s="1">
+        <f>SUM(D286:D289)</f>
+        <v>4</v>
+      </c>
+      <c r="E290" s="1">
+        <f t="shared" ref="E290:I290" si="17">SUM(E286:E289)</f>
+        <v>5</v>
+      </c>
+      <c r="F290" s="1">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="G290" s="1">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="H290" s="1">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="I290" s="1">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="J290" s="10"/>
+      <c r="K290" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L290" s="1">
+        <f>SUM(L286:L289)</f>
+        <v>4</v>
+      </c>
+      <c r="M290" s="1">
+        <f>SUM(M286:M289)</f>
+        <v>5</v>
+      </c>
+      <c r="N290" s="1">
+        <f t="shared" ref="N290:R290" si="18">SUM(N286:N289)</f>
+        <v>7</v>
+      </c>
+      <c r="O290" s="1">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="P290" s="1">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="R290" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S290" s="1">
+        <f>SUM(S286:S289)</f>
+        <v>11</v>
+      </c>
+      <c r="T290" s="1">
+        <f>SUM(T286:T289)</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="26">
+    <mergeCell ref="B284:M284"/>
+    <mergeCell ref="A285:A290"/>
+    <mergeCell ref="J285:J290"/>
+    <mergeCell ref="R286:R289"/>
+    <mergeCell ref="J215:J220"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="J192:J197"/>
     <mergeCell ref="B261:M261"/>
     <mergeCell ref="A262:A267"/>
     <mergeCell ref="J262:J267"/>
@@ -18356,12 +21468,6 @@
     <mergeCell ref="A238:A243"/>
     <mergeCell ref="J238:J243"/>
     <mergeCell ref="B214:M214"/>
-    <mergeCell ref="J215:J220"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B191:M191"/>
-    <mergeCell ref="J192:J197"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Burntdown Chart.xlsx
+++ b/Burntdown Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="34">
   <si>
     <t>Kegiatan</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>EDIT TAMPILAN</t>
+  </si>
+  <si>
+    <t>HARI 13</t>
+  </si>
+  <si>
+    <t>HARI 14</t>
   </si>
 </sst>
 </file>
@@ -404,11 +410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="830789424"/>
-        <c:axId val="830789968"/>
+        <c:axId val="1990402160"/>
+        <c:axId val="1990398352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="830789424"/>
+        <c:axId val="1990402160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,7 +456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830789968"/>
+        <c:crossAx val="1990398352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -458,7 +464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="830789968"/>
+        <c:axId val="1990398352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830789424"/>
+        <c:crossAx val="1990402160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -705,11 +711,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835286032"/>
-        <c:axId val="835287120"/>
+        <c:axId val="2040654656"/>
+        <c:axId val="2040662816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835286032"/>
+        <c:axId val="2040654656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835287120"/>
+        <c:crossAx val="2040662816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -760,7 +766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835287120"/>
+        <c:axId val="2040662816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835286032"/>
+        <c:crossAx val="2040654656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -997,11 +1003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835289296"/>
-        <c:axId val="835502992"/>
+        <c:axId val="2040666624"/>
+        <c:axId val="2040661728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835289296"/>
+        <c:axId val="2040666624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835502992"/>
+        <c:crossAx val="2040661728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1052,7 +1058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835502992"/>
+        <c:axId val="2040661728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835289296"/>
+        <c:crossAx val="2040666624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,11 +1305,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835517136"/>
-        <c:axId val="835506256"/>
+        <c:axId val="2040662272"/>
+        <c:axId val="2040665536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835517136"/>
+        <c:axId val="2040662272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835506256"/>
+        <c:crossAx val="2040665536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1354,7 +1360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835506256"/>
+        <c:axId val="2040665536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835517136"/>
+        <c:crossAx val="2040662272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1591,11 +1597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835515504"/>
-        <c:axId val="835513328"/>
+        <c:axId val="2040669344"/>
+        <c:axId val="2040658464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835515504"/>
+        <c:axId val="2040669344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835513328"/>
+        <c:crossAx val="2040658464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1646,7 +1652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835513328"/>
+        <c:axId val="2040658464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835515504"/>
+        <c:crossAx val="2040669344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1893,11 +1899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835504624"/>
-        <c:axId val="835516048"/>
+        <c:axId val="2040667712"/>
+        <c:axId val="2040655200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835504624"/>
+        <c:axId val="2040667712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835516048"/>
+        <c:crossAx val="2040655200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +1954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835516048"/>
+        <c:axId val="2040655200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835504624"/>
+        <c:crossAx val="2040667712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2190,11 +2196,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835512240"/>
-        <c:axId val="835513872"/>
+        <c:axId val="2040663904"/>
+        <c:axId val="2040654112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835512240"/>
+        <c:axId val="2040663904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835513872"/>
+        <c:crossAx val="2040654112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2245,7 +2251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835513872"/>
+        <c:axId val="2040654112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835512240"/>
+        <c:crossAx val="2040663904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2492,11 +2498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835509520"/>
-        <c:axId val="835507344"/>
+        <c:axId val="2040668256"/>
+        <c:axId val="2040656832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835509520"/>
+        <c:axId val="2040668256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,7 +2545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835507344"/>
+        <c:crossAx val="2040656832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2547,7 +2553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835507344"/>
+        <c:axId val="2040656832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,7 +2604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835509520"/>
+        <c:crossAx val="2040668256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2779,11 +2785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835507888"/>
-        <c:axId val="835514960"/>
+        <c:axId val="2040597696"/>
+        <c:axId val="2040597152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835507888"/>
+        <c:axId val="2040597696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +2832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835514960"/>
+        <c:crossAx val="2040597152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2834,7 +2840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835514960"/>
+        <c:axId val="2040597152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,7 +2891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835507888"/>
+        <c:crossAx val="2040597696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3016,8 +3022,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.0025371828521436E-2"/>
-          <c:y val="0.17171296296296298"/>
+          <c:x val="4.0025309854614416E-2"/>
+          <c:y val="0.19486111111111112"/>
           <c:w val="0.9155301837270341"/>
           <c:h val="0.72088764946048411"/>
         </c:manualLayout>
@@ -3026,8 +3032,84 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3101,6 +3183,462 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3110,11 +3648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="788161264"/>
-        <c:axId val="788160176"/>
+        <c:axId val="2074266896"/>
+        <c:axId val="2074269072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="788161264"/>
+        <c:axId val="2074266896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3157,7 +3695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="788160176"/>
+        <c:crossAx val="2074269072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3165,7 +3703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="788160176"/>
+        <c:axId val="2074269072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,7 +3754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="788161264"/>
+        <c:crossAx val="2074266896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3414,11 +3952,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="879876192"/>
-        <c:axId val="879893056"/>
+        <c:axId val="2040592800"/>
+        <c:axId val="2040592256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="879876192"/>
+        <c:axId val="2040592800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3461,7 +3999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="879893056"/>
+        <c:crossAx val="2040592256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3469,7 +4007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="879893056"/>
+        <c:axId val="2040592256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3520,7 +4058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="879876192"/>
+        <c:crossAx val="2040592800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3674,11 +4212,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="830779632"/>
-        <c:axId val="830785616"/>
+        <c:axId val="1990403248"/>
+        <c:axId val="1990403792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="830779632"/>
+        <c:axId val="1990403248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3720,7 +4258,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830785616"/>
+        <c:crossAx val="1990403792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3728,7 +4266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="830785616"/>
+        <c:axId val="1990403792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +4317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830779632"/>
+        <c:crossAx val="1990403248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3964,11 +4502,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="879900672"/>
-        <c:axId val="879901216"/>
+        <c:axId val="2040588992"/>
+        <c:axId val="2040599328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="879900672"/>
+        <c:axId val="2040588992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,7 +4549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="879901216"/>
+        <c:crossAx val="2040599328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4019,7 +4557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="879901216"/>
+        <c:axId val="2040599328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,7 +4608,1465 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="879900672"/>
+        <c:crossAx val="2040588992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0025309854614416E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.9155301837270341"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$285:$I$285</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$290:$I$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2077369792"/>
+        <c:axId val="2077361088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2077369792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077361088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077361088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077369792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu 2 - Senin -- Jumat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$285:$P$285</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$290:$P$290</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2077364896"/>
+        <c:axId val="2077370336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2077364896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077370336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077370336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077364896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2 - Sabut&amp;Minggu</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$309:$T$309</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$314:$T$314</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2077377952"/>
+        <c:axId val="2077380128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2077377952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077380128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077380128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077377952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4310,11 +6306,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="830790512"/>
-        <c:axId val="830791056"/>
+        <c:axId val="2039800576"/>
+        <c:axId val="2039802208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="830790512"/>
+        <c:axId val="2039800576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +6353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830791056"/>
+        <c:crossAx val="2039802208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4365,7 +6361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="830791056"/>
+        <c:axId val="2039802208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4416,7 +6412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830790512"/>
+        <c:crossAx val="2039800576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4580,11 +6576,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835290384"/>
-        <c:axId val="835279504"/>
+        <c:axId val="2039803296"/>
+        <c:axId val="2039796768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835290384"/>
+        <c:axId val="2039803296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4627,7 +6623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835279504"/>
+        <c:crossAx val="2039796768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4635,7 +6631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835279504"/>
+        <c:axId val="2039796768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4686,7 +6682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835290384"/>
+        <c:crossAx val="2039803296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4750,6 +6746,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4841,11 +6838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835283312"/>
-        <c:axId val="835280048"/>
+        <c:axId val="2039790784"/>
+        <c:axId val="2039797856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835283312"/>
+        <c:axId val="2039790784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,7 +6885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835280048"/>
+        <c:crossAx val="2039797856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4896,7 +6893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835280048"/>
+        <c:axId val="2039797856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4947,7 +6944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835283312"/>
+        <c:crossAx val="2039790784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5011,6 +7008,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5102,11 +7100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835282224"/>
-        <c:axId val="835277872"/>
+        <c:axId val="2039792960"/>
+        <c:axId val="2039804928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835282224"/>
+        <c:axId val="2039792960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,7 +7147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835277872"/>
+        <c:crossAx val="2039804928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5157,7 +7155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835277872"/>
+        <c:axId val="2039804928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5208,7 +7206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835282224"/>
+        <c:crossAx val="2039792960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5333,11 +7331,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835291472"/>
-        <c:axId val="835287664"/>
+        <c:axId val="2039793504"/>
+        <c:axId val="2039798400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835291472"/>
+        <c:axId val="2039793504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5380,7 +7378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835287664"/>
+        <c:crossAx val="2039798400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5388,7 +7386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835287664"/>
+        <c:axId val="2039798400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5439,7 +7437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835291472"/>
+        <c:crossAx val="2039793504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5635,11 +7633,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835284400"/>
-        <c:axId val="835284944"/>
+        <c:axId val="2039798944"/>
+        <c:axId val="2039792416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835284400"/>
+        <c:axId val="2039798944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5682,7 +7680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835284944"/>
+        <c:crossAx val="2039792416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5690,7 +7688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835284944"/>
+        <c:axId val="2039792416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +7739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835284400"/>
+        <c:crossAx val="2039798944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5922,11 +7920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="835276784"/>
-        <c:axId val="835277328"/>
+        <c:axId val="2039805472"/>
+        <c:axId val="2039791872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835276784"/>
+        <c:axId val="2039805472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5969,7 +7967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835277328"/>
+        <c:crossAx val="2039791872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5977,7 +7975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835277328"/>
+        <c:axId val="2039791872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6028,7 +8026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835276784"/>
+        <c:crossAx val="2039805472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6597,6 +8595,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13070,6 +15188,1554 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17724,13 +21390,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>291</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>290793</xdr:colOff>
       <xdr:row>305</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -17808,6 +21474,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>79562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>155762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18079,10 +21839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T290"/>
+  <dimension ref="A1:T314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T280" sqref="T280"/>
+    <sheetView tabSelected="1" topLeftCell="C305" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X319" sqref="X319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21084,7 +24844,7 @@
     <row r="284" spans="1:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
@@ -21417,7 +25177,7 @@
         <v>5</v>
       </c>
       <c r="N290" s="1">
-        <f t="shared" ref="N290:R290" si="18">SUM(N286:N289)</f>
+        <f t="shared" ref="N290:P290" si="18">SUM(N286:N289)</f>
         <v>7</v>
       </c>
       <c r="O290" s="1">
@@ -21440,27 +25200,371 @@
         <v>6</v>
       </c>
     </row>
+    <row r="308" spans="1:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="6"/>
+      <c r="B308" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="9"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="9"/>
+      <c r="K308" s="9"/>
+      <c r="L308" s="9"/>
+      <c r="M308" s="9"/>
+    </row>
+    <row r="309" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H309" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J309" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K309" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L309" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M309" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P309" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R309" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S309" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T309" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="10"/>
+      <c r="B310" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1">
+        <v>2</v>
+      </c>
+      <c r="D310" s="1">
+        <v>1</v>
+      </c>
+      <c r="E310" s="1">
+        <v>2</v>
+      </c>
+      <c r="F310" s="1">
+        <v>1</v>
+      </c>
+      <c r="G310" s="1">
+        <v>1</v>
+      </c>
+      <c r="H310" s="1">
+        <v>1</v>
+      </c>
+      <c r="I310" s="1">
+        <v>1</v>
+      </c>
+      <c r="J310" s="10"/>
+      <c r="K310" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L310" s="1">
+        <v>1</v>
+      </c>
+      <c r="M310" s="1">
+        <v>1</v>
+      </c>
+      <c r="N310" s="1">
+        <v>2</v>
+      </c>
+      <c r="O310" s="1">
+        <v>3</v>
+      </c>
+      <c r="P310" s="1">
+        <v>2</v>
+      </c>
+      <c r="R310" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S310" s="1">
+        <v>2</v>
+      </c>
+      <c r="T310" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="10"/>
+      <c r="B311" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C311" s="1">
+        <v>2</v>
+      </c>
+      <c r="D311" s="1">
+        <v>1</v>
+      </c>
+      <c r="E311" s="1">
+        <v>1</v>
+      </c>
+      <c r="F311" s="1">
+        <v>1</v>
+      </c>
+      <c r="G311" s="1">
+        <v>2</v>
+      </c>
+      <c r="H311" s="1">
+        <v>2</v>
+      </c>
+      <c r="I311" s="1">
+        <v>2</v>
+      </c>
+      <c r="J311" s="10"/>
+      <c r="K311" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L311" s="1">
+        <v>1</v>
+      </c>
+      <c r="M311" s="1">
+        <v>2</v>
+      </c>
+      <c r="N311" s="1">
+        <v>2</v>
+      </c>
+      <c r="O311" s="1">
+        <v>2</v>
+      </c>
+      <c r="P311" s="1">
+        <v>2</v>
+      </c>
+      <c r="R311" s="12"/>
+      <c r="S311" s="1">
+        <v>3</v>
+      </c>
+      <c r="T311" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="10"/>
+      <c r="B312" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="1">
+        <v>2</v>
+      </c>
+      <c r="D312" s="1">
+        <v>1</v>
+      </c>
+      <c r="E312" s="1">
+        <v>1</v>
+      </c>
+      <c r="F312" s="1">
+        <v>2</v>
+      </c>
+      <c r="G312" s="1">
+        <v>2</v>
+      </c>
+      <c r="H312" s="1">
+        <v>1</v>
+      </c>
+      <c r="I312" s="1">
+        <v>2</v>
+      </c>
+      <c r="J312" s="10"/>
+      <c r="K312" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L312" s="1">
+        <v>1</v>
+      </c>
+      <c r="M312" s="1">
+        <v>1</v>
+      </c>
+      <c r="N312" s="1">
+        <v>1</v>
+      </c>
+      <c r="O312" s="1">
+        <v>2</v>
+      </c>
+      <c r="P312" s="1">
+        <v>2</v>
+      </c>
+      <c r="R312" s="12"/>
+      <c r="S312" s="1">
+        <v>3</v>
+      </c>
+      <c r="T312" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="10"/>
+      <c r="B313" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" s="1">
+        <v>2</v>
+      </c>
+      <c r="D313" s="1">
+        <v>1</v>
+      </c>
+      <c r="E313" s="1">
+        <v>1</v>
+      </c>
+      <c r="F313" s="1">
+        <v>1</v>
+      </c>
+      <c r="G313" s="1">
+        <v>1</v>
+      </c>
+      <c r="H313" s="1">
+        <v>1</v>
+      </c>
+      <c r="I313" s="1">
+        <v>1</v>
+      </c>
+      <c r="J313" s="10"/>
+      <c r="K313" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L313" s="1">
+        <v>1</v>
+      </c>
+      <c r="M313" s="1">
+        <v>1</v>
+      </c>
+      <c r="N313" s="1">
+        <v>2</v>
+      </c>
+      <c r="O313" s="1">
+        <v>3</v>
+      </c>
+      <c r="P313" s="1">
+        <v>2</v>
+      </c>
+      <c r="R313" s="13"/>
+      <c r="S313" s="1">
+        <v>3</v>
+      </c>
+      <c r="T313" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="10"/>
+      <c r="B314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" s="1">
+        <f>SUM(C310:C313)</f>
+        <v>8</v>
+      </c>
+      <c r="D314" s="1">
+        <f>SUM(D310:D313)</f>
+        <v>4</v>
+      </c>
+      <c r="E314" s="1">
+        <f t="shared" ref="E314:I314" si="19">SUM(E310:E313)</f>
+        <v>5</v>
+      </c>
+      <c r="F314" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G314" s="1">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="H314" s="1">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="I314" s="1">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="J314" s="10"/>
+      <c r="K314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L314" s="1">
+        <f>SUM(L310:L313)</f>
+        <v>4</v>
+      </c>
+      <c r="M314" s="1">
+        <f>SUM(M310:M313)</f>
+        <v>5</v>
+      </c>
+      <c r="N314" s="1">
+        <f t="shared" ref="N314:P314" si="20">SUM(N310:N313)</f>
+        <v>7</v>
+      </c>
+      <c r="O314" s="1">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="P314" s="1">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="R314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S314" s="1">
+        <f>SUM(S310:S313)</f>
+        <v>11</v>
+      </c>
+      <c r="T314" s="1">
+        <f>SUM(T310:T313)</f>
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B284:M284"/>
-    <mergeCell ref="A285:A290"/>
-    <mergeCell ref="J285:J290"/>
-    <mergeCell ref="R286:R289"/>
-    <mergeCell ref="J215:J220"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B191:M191"/>
-    <mergeCell ref="J192:J197"/>
-    <mergeCell ref="B261:M261"/>
-    <mergeCell ref="A262:A267"/>
-    <mergeCell ref="J262:J267"/>
-    <mergeCell ref="B119:M119"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B48:M48"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B96:M96"/>
+  <mergeCells count="30">
+    <mergeCell ref="B308:M308"/>
+    <mergeCell ref="A309:A314"/>
+    <mergeCell ref="J309:J314"/>
+    <mergeCell ref="R310:R313"/>
     <mergeCell ref="B167:M167"/>
     <mergeCell ref="J168:J173"/>
     <mergeCell ref="B143:M143"/>
@@ -21468,6 +25572,25 @@
     <mergeCell ref="A238:A243"/>
     <mergeCell ref="J238:J243"/>
     <mergeCell ref="B214:M214"/>
+    <mergeCell ref="B119:M119"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B96:M96"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="J192:J197"/>
+    <mergeCell ref="B261:M261"/>
+    <mergeCell ref="B284:M284"/>
+    <mergeCell ref="A285:A290"/>
+    <mergeCell ref="J285:J290"/>
+    <mergeCell ref="R286:R289"/>
+    <mergeCell ref="J215:J220"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A262:A267"/>
+    <mergeCell ref="J262:J267"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
